--- a/out/ExcellFiles/Orbitals4.xlsx
+++ b/out/ExcellFiles/Orbitals4.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,13 +426,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>59043</v>
+        <v>50000</v>
       </c>
       <c r="C2">
-        <v>6628</v>
+        <v>42000</v>
       </c>
       <c r="D2">
-        <v>1.181503270665801e-16</v>
+        <v>0.003600000000000081</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>59044</v>
+        <v>50001</v>
       </c>
       <c r="C3">
-        <v>6626.778714070906</v>
+        <v>41999.68915037021</v>
       </c>
       <c r="D3">
-        <v>0.001049284834737907</v>
+        <v>0.003614450154177027</v>
       </c>
       <c r="E3">
-        <v>9.848048632265339e-05</v>
+        <v>0.002207424126260215</v>
       </c>
       <c r="F3">
-        <v>78.09574592420782</v>
+        <v>32.20634525694359</v>
       </c>
       <c r="G3">
-        <v>39.58439320943873</v>
+        <v>326.364368965152</v>
       </c>
       <c r="H3">
-        <v>292.5833038086174</v>
+        <v>4.576223021590645</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59045</v>
+        <v>50002</v>
       </c>
       <c r="C4">
-        <v>6625.534325873819</v>
+        <v>41999.39361833537</v>
       </c>
       <c r="D4">
-        <v>0.001994559597431321</v>
+        <v>0.003633921444735492</v>
       </c>
       <c r="E4">
-        <v>0.0002318604646295932</v>
+        <v>0.004663878173889047</v>
       </c>
       <c r="F4">
-        <v>70.01905847340939</v>
+        <v>37.99049337366036</v>
       </c>
       <c r="G4">
-        <v>78.33549477062689</v>
+        <v>319.1149999672065</v>
       </c>
       <c r="H4">
-        <v>313.9141196879486</v>
+        <v>9.188534756494517</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59046</v>
+        <v>50003</v>
       </c>
       <c r="C5">
-        <v>6624.06434007839</v>
+        <v>41999.1378925048</v>
       </c>
       <c r="D5">
-        <v>0.002649662449774603</v>
+        <v>0.003659921306599986</v>
       </c>
       <c r="E5">
-        <v>0.0003996481516347684</v>
+        <v>0.007223336486589883</v>
       </c>
       <c r="F5">
-        <v>65.47182248909043</v>
+        <v>43.7143471798798</v>
       </c>
       <c r="G5">
-        <v>114.9817833808949</v>
+        <v>311.9098816921149</v>
       </c>
       <c r="H5">
-        <v>335.6249224024036</v>
+        <v>13.81712883718906</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>59047</v>
+        <v>50004</v>
       </c>
       <c r="C6">
-        <v>6622.603453224911</v>
+        <v>41998.93330622622</v>
       </c>
       <c r="D6">
-        <v>0.00289596642711189</v>
+        <v>0.003693382727049277</v>
       </c>
       <c r="E6">
-        <v>0.0005981505506236504</v>
+        <v>0.009756014683582318</v>
       </c>
       <c r="F6">
-        <v>63.01243366782233</v>
+        <v>49.26932719247145</v>
       </c>
       <c r="G6">
-        <v>150.3894475055847</v>
+        <v>304.8821764007743</v>
       </c>
       <c r="H6">
-        <v>358.3589631160404</v>
+        <v>18.43746408183091</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>59048</v>
+        <v>50005</v>
       </c>
       <c r="C7">
-        <v>6621.209650759295</v>
+        <v>41998.78308749507</v>
       </c>
       <c r="D7">
-        <v>0.002660022968759458</v>
+        <v>0.003734735930437856</v>
       </c>
       <c r="E7">
-        <v>0.0008174614043046694</v>
+        <v>0.01215208889601972</v>
       </c>
       <c r="F7">
-        <v>62.3989177605907</v>
+        <v>54.5659362061292</v>
       </c>
       <c r="G7">
-        <v>185.6744720975486</v>
+        <v>298.1474877334832</v>
       </c>
       <c r="H7">
-        <v>21.31809235514138</v>
+        <v>23.02344358807468</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>59049</v>
+        <v>50006</v>
       </c>
       <c r="C8">
-        <v>6619.551694062296</v>
+        <v>41998.68693006676</v>
       </c>
       <c r="D8">
-        <v>0.001896865573948528</v>
+        <v>0.003783963399142504</v>
       </c>
       <c r="E8">
-        <v>0.001036117902291485</v>
+        <v>0.01432094229180513</v>
       </c>
       <c r="F8">
-        <v>62.92573308517956</v>
+        <v>59.51043826544944</v>
       </c>
       <c r="G8">
-        <v>222.1422445227484</v>
+        <v>291.8258426003092</v>
       </c>
       <c r="H8">
-        <v>43.98223942054987</v>
+        <v>27.54877204168699</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59050</v>
+        <v>50007</v>
       </c>
       <c r="C9">
-        <v>6617.848205038589</v>
+        <v>41998.6448059957</v>
       </c>
       <c r="D9">
-        <v>0.0007662841123869333</v>
+        <v>0.003840795871160939</v>
       </c>
       <c r="E9">
-        <v>0.001238100140886636</v>
+        <v>0.01619205537803364</v>
       </c>
       <c r="F9">
-        <v>63.85030630263945</v>
+        <v>63.97560246386242</v>
       </c>
       <c r="G9">
-        <v>266.8052304596816</v>
+        <v>286.0655042423216</v>
       </c>
       <c r="H9">
-        <v>60.16688118361523</v>
+        <v>31.99237493486773</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>59051</v>
+        <v>50008</v>
       </c>
       <c r="C10">
-        <v>6616.272565597706</v>
+        <v>41998.65698476307</v>
       </c>
       <c r="D10">
-        <v>0.0006385268429536431</v>
+        <v>0.003904148244231827</v>
       </c>
       <c r="E10">
-        <v>0.001408985211884227</v>
+        <v>0.01771022332129847</v>
       </c>
       <c r="F10">
-        <v>64.96663555529688</v>
+        <v>67.80032345944278</v>
       </c>
       <c r="G10">
-        <v>85.62608463001595</v>
+        <v>281.0552367938856</v>
       </c>
       <c r="H10">
-        <v>304.212607936855</v>
+        <v>36.32664675040883</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>59052</v>
+        <v>50009</v>
       </c>
       <c r="C11">
-        <v>6614.414754716297</v>
+        <v>41998.72467990901</v>
       </c>
       <c r="D11">
-        <v>0.001819826579376191</v>
+        <v>0.003972267973460599</v>
       </c>
       <c r="E11">
-        <v>0.001530819242879542</v>
+        <v>0.01884876597806569</v>
       </c>
       <c r="F11">
-        <v>65.75573842825672</v>
+        <v>70.7547066760295</v>
       </c>
       <c r="G11">
-        <v>138.0935650821851</v>
+        <v>277.0486985993388</v>
       </c>
       <c r="H11">
-        <v>317.2536111258918</v>
+        <v>40.52792720643127</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>59053</v>
+        <v>50010</v>
       </c>
       <c r="C12">
-        <v>6612.557362670653</v>
+        <v>41998.84702493932</v>
       </c>
       <c r="D12">
-        <v>0.00257894960964442</v>
+        <v>0.004042920294648247</v>
       </c>
       <c r="E12">
-        <v>0.001602076388774004</v>
+        <v>0.01963349414441267</v>
       </c>
       <c r="F12">
-        <v>65.53549298174828</v>
+        <v>72.52016329146576</v>
       </c>
       <c r="G12">
-        <v>181.1543528406269</v>
+        <v>274.375063874305</v>
       </c>
       <c r="H12">
-        <v>343.1381665840294</v>
+        <v>44.58575330219264</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>59054</v>
+        <v>50011</v>
       </c>
       <c r="C13">
-        <v>6610.674024196655</v>
+        <v>41999.01673963433</v>
       </c>
       <c r="D13">
-        <v>0.002647601493531468</v>
+        <v>0.004113263790772385</v>
       </c>
       <c r="E13">
-        <v>0.001629563385035704</v>
+        <v>0.02017521137066387</v>
       </c>
       <c r="F13">
-        <v>63.84682441635856</v>
+        <v>72.73147144674985</v>
       </c>
       <c r="G13">
-        <v>226.8157712356486</v>
+        <v>273.3965813137128</v>
       </c>
       <c r="H13">
-        <v>10.4469012446131</v>
+        <v>48.50330166846469</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>59055</v>
+        <v>50012</v>
       </c>
       <c r="C14">
-        <v>6608.431481356552</v>
+        <v>41999.21479371298</v>
       </c>
       <c r="D14">
-        <v>0.001901240470185699</v>
+        <v>0.004180179899064196</v>
       </c>
       <c r="E14">
-        <v>0.001634485148833741</v>
+        <v>0.02070804795148246</v>
       </c>
       <c r="F14">
-        <v>60.10644551026308</v>
+        <v>71.12469440406588</v>
       </c>
       <c r="G14">
-        <v>278.0419273290412</v>
+        <v>274.3551843629504</v>
       </c>
       <c r="H14">
-        <v>36.93646269974559</v>
+        <v>52.30286658727012</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>59056</v>
+        <v>50013</v>
       </c>
       <c r="C15">
-        <v>6606.336433744818</v>
+        <v>41999.40645055177</v>
       </c>
       <c r="D15">
-        <v>0.0006523296702840888</v>
+        <v>0.004240964794694169</v>
       </c>
       <c r="E15">
-        <v>0.001648305714334753</v>
+        <v>0.02158976060344012</v>
       </c>
       <c r="F15">
-        <v>54.45677760681205</v>
+        <v>67.84978487942779</v>
       </c>
       <c r="G15">
-        <v>356.6846865092987</v>
+        <v>277.0573037829005</v>
       </c>
       <c r="H15">
-        <v>40.76924160330088</v>
+        <v>56.02842031708297</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>59057</v>
+        <v>50014</v>
       </c>
       <c r="C16">
-        <v>6603.906256243276</v>
+        <v>41999.54239644977</v>
       </c>
       <c r="D16">
-        <v>0.001137082878318151</v>
+        <v>0.004294274603152191</v>
       </c>
       <c r="E16">
-        <v>0.001698218880694067</v>
+        <v>0.02319788253388328</v>
       </c>
       <c r="F16">
-        <v>47.41509952077594</v>
+        <v>63.75835185495064</v>
       </c>
       <c r="G16">
-        <v>169.9181654272036</v>
+        <v>280.5904167901544</v>
       </c>
       <c r="H16">
-        <v>314.4305787244089</v>
+        <v>59.74123308179909</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>59058</v>
+        <v>50015</v>
       </c>
       <c r="C17">
-        <v>6601.492040409527</v>
+        <v>41999.5680836824</v>
       </c>
       <c r="D17">
-        <v>0.002264341781916578</v>
+        <v>0.004340918537680322</v>
       </c>
       <c r="E17">
-        <v>0.001801092926706885</v>
+        <v>0.02572815779278769</v>
       </c>
       <c r="F17">
-        <v>40.47399791346469</v>
+        <v>60.16829237629288</v>
       </c>
       <c r="G17">
-        <v>237.1808419162982</v>
+        <v>283.5718280988942</v>
       </c>
       <c r="H17">
-        <v>337.1861269891878</v>
+        <v>63.50636354718061</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>59059</v>
+        <v>50016</v>
       </c>
       <c r="C18">
-        <v>6598.781692649934</v>
+        <v>41999.44028358456</v>
       </c>
       <c r="D18">
-        <v>0.002489977677626065</v>
+        <v>0.004383952160471965</v>
       </c>
       <c r="E18">
-        <v>0.001937159912014795</v>
+        <v>0.02906049459448265</v>
       </c>
       <c r="F18">
-        <v>34.51794967465862</v>
+        <v>58.09441647134241</v>
       </c>
       <c r="G18">
-        <v>299.0017234579398</v>
+        <v>284.9373111314783</v>
       </c>
       <c r="H18">
-        <v>7.851940761553649</v>
+        <v>67.37330334582327</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>59060</v>
+        <v>50017</v>
       </c>
       <c r="C19">
-        <v>6595.889220648723</v>
+        <v>41999.14383880693</v>
       </c>
       <c r="D19">
-        <v>0.001630514901737824</v>
+        <v>0.004427822491322776</v>
       </c>
       <c r="E19">
-        <v>0.002084355776144812</v>
+        <v>0.03282546918352251</v>
       </c>
       <c r="F19">
-        <v>30.08414649337276</v>
+        <v>57.78280214333404</v>
       </c>
       <c r="G19">
-        <v>6.12028124237453</v>
+        <v>284.4228045429519</v>
       </c>
       <c r="H19">
-        <v>35.40785920551909</v>
+        <v>71.35989807965095</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>59061</v>
+        <v>50018</v>
       </c>
       <c r="C20">
-        <v>6592.724334413015</v>
+        <v>41998.69924607721</v>
       </c>
       <c r="D20">
-        <v>0.0006114426214093131</v>
+        <v>0.00447694955133245</v>
       </c>
       <c r="E20">
-        <v>0.002203790397208265</v>
+        <v>0.03658165275513815</v>
       </c>
       <c r="F20">
-        <v>26.81945937894952</v>
+        <v>58.89213852105771</v>
       </c>
       <c r="G20">
-        <v>150.3562601438356</v>
+        <v>282.3868991097465</v>
       </c>
       <c r="H20">
-        <v>348.6933057543209</v>
+        <v>75.44857837264479</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>59062</v>
+        <v>50019</v>
       </c>
       <c r="C21">
-        <v>6589.368484530962</v>
+        <v>41998.15671805916</v>
       </c>
       <c r="D21">
-        <v>0.00185453645460921</v>
+        <v>0.0045345113822989</v>
       </c>
       <c r="E21">
-        <v>0.002275839472620297</v>
+        <v>0.03995990230109739</v>
       </c>
       <c r="F21">
-        <v>24.37372178458441</v>
+        <v>60.86104088956981</v>
       </c>
       <c r="G21">
-        <v>268.3767364317982</v>
+        <v>279.4339164599999</v>
       </c>
       <c r="H21">
-        <v>331.755766639022</v>
+        <v>79.5960871976669</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>59063</v>
+        <v>50020</v>
       </c>
       <c r="C22">
-        <v>6585.455109840923</v>
+        <v>41997.58087803901</v>
       </c>
       <c r="D22">
-        <v>0.002343204009221537</v>
+        <v>0.004601938991396146</v>
       </c>
       <c r="E22">
-        <v>0.00228606817990818</v>
+        <v>0.04273203818793416</v>
       </c>
       <c r="F22">
-        <v>22.11677786067263</v>
+        <v>63.13370012182952</v>
       </c>
       <c r="G22">
-        <v>342.1250860258049</v>
+        <v>276.1725224891892</v>
       </c>
       <c r="H22">
-        <v>3.755443944955357</v>
+        <v>83.74933588560333</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>59064</v>
+        <v>50021</v>
       </c>
       <c r="C23">
-        <v>6581.207132678753</v>
+        <v>41997.03455126785</v>
       </c>
       <c r="D23">
-        <v>0.001445990553309268</v>
+        <v>0.004679052474644738</v>
       </c>
       <c r="E23">
-        <v>0.002233922198514535</v>
+        <v>0.04482508808641718</v>
       </c>
       <c r="F23">
-        <v>19.5944806369809</v>
+        <v>65.24371344966147</v>
       </c>
       <c r="G23">
-        <v>67.84262148699941</v>
+        <v>273.1186232679221</v>
       </c>
       <c r="H23">
-        <v>29.5175306024768</v>
+        <v>87.85874570121595</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>59065</v>
+        <v>50022</v>
       </c>
       <c r="C24">
-        <v>6576.004295954928</v>
+        <v>41996.5677397312</v>
       </c>
       <c r="D24">
-        <v>0.001056517615894602</v>
+        <v>0.004764463368734064</v>
       </c>
       <c r="E24">
-        <v>0.002133189633997346</v>
+        <v>0.04630829924773603</v>
       </c>
       <c r="F24">
-        <v>16.38551831922317</v>
+        <v>66.835723450682</v>
       </c>
       <c r="G24">
-        <v>240.2640205038526</v>
+        <v>270.6663777822706</v>
       </c>
       <c r="H24">
-        <v>335.5771048135437</v>
+        <v>91.88560357514359</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>59066</v>
+        <v>50023</v>
       </c>
       <c r="C25">
-        <v>6569.907619808296</v>
+        <v>41996.21286425321</v>
       </c>
       <c r="D25">
-        <v>0.002117942968827818</v>
+        <v>0.004855968833600576</v>
       </c>
       <c r="E25">
-        <v>0.002003655958552413</v>
+        <v>0.04736739391292233</v>
       </c>
       <c r="F25">
-        <v>12.02014164137042</v>
+        <v>67.67657925429752</v>
       </c>
       <c r="G25">
-        <v>351.6657740915015</v>
+        <v>269.0741689075306</v>
       </c>
       <c r="H25">
-        <v>351.3268091525346</v>
+        <v>95.8048936850202</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>59067</v>
+        <v>50024</v>
       </c>
       <c r="C26">
-        <v>6561.952544354626</v>
+        <v>41995.98424279843</v>
       </c>
       <c r="D26">
-        <v>0.001592894101747533</v>
+        <v>0.00495089608149748</v>
       </c>
       <c r="E26">
-        <v>0.001865574540939375</v>
+        <v>0.04826770623719561</v>
       </c>
       <c r="F26">
-        <v>6.287746810303687</v>
+        <v>67.67524776499545</v>
       </c>
       <c r="G26">
-        <v>101.8073919695923</v>
+        <v>268.4438198800692</v>
       </c>
       <c r="H26">
-        <v>19.10837905296184</v>
+        <v>99.60611256477038</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>59068</v>
+        <v>50025</v>
       </c>
       <c r="C27">
-        <v>6549.524182676179</v>
+        <v>41995.87955124368</v>
       </c>
       <c r="D27">
-        <v>0.001335906117352796</v>
+        <v>0.00504647102781183</v>
       </c>
       <c r="E27">
-        <v>0.001743477698562465</v>
+        <v>0.04930214724427973</v>
       </c>
       <c r="F27">
-        <v>359.2847641226712</v>
+        <v>66.90461185391263</v>
       </c>
       <c r="G27">
-        <v>288.1631547182398</v>
+        <v>268.6989263025507</v>
       </c>
       <c r="H27">
-        <v>345.3216728218833</v>
+        <v>103.2930774968969</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>59069</v>
+        <v>50026</v>
       </c>
       <c r="C28">
-        <v>6508.341444838642</v>
+        <v>41995.88223056807</v>
       </c>
       <c r="D28">
-        <v>0.001579789336693541</v>
+        <v>0.005140246515496683</v>
       </c>
       <c r="E28">
-        <v>0.001653472145106542</v>
+        <v>0.0507256383793562</v>
       </c>
       <c r="F28">
-        <v>351.3139965116383</v>
+        <v>65.59741226393641</v>
       </c>
       <c r="G28">
-        <v>105.8312929408486</v>
+        <v>269.5904857797118</v>
       </c>
       <c r="H28">
-        <v>347.4933127684847</v>
+        <v>106.8822996864708</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,8839 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>59069.00072133668</v>
+        <v>50027</v>
       </c>
       <c r="C29">
-        <v>6508.122800420135</v>
+        <v>41995.96485140002</v>
       </c>
       <c r="D29">
-        <v>0.001572746270412157</v>
+        <v>0.005230523388086179</v>
       </c>
       <c r="E29">
-        <v>0.001653502122480329</v>
+        <v>0.05269261300185756</v>
       </c>
       <c r="F29">
-        <v>351.3030099771777</v>
+        <v>64.08926484763272</v>
       </c>
       <c r="G29">
-        <v>110.2942982111756</v>
+        <v>270.7574984532154</v>
       </c>
       <c r="H29">
-        <v>347.3486676397831</v>
+        <v>110.3993244626542</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>50028</v>
+      </c>
+      <c r="C30">
+        <v>41996.0936024503</v>
+      </c>
+      <c r="D30">
+        <v>0.005316633008192297</v>
+      </c>
+      <c r="E30">
+        <v>0.05522399245662556</v>
+      </c>
+      <c r="F30">
+        <v>62.71802102858992</v>
+      </c>
+      <c r="G30">
+        <v>271.8330236990791</v>
+      </c>
+      <c r="H30">
+        <v>113.873290611975</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>50029</v>
+      </c>
+      <c r="C31">
+        <v>41996.23349245613</v>
+      </c>
+      <c r="D31">
+        <v>0.005398972993897397</v>
+      </c>
+      <c r="E31">
+        <v>0.05821861801773886</v>
+      </c>
+      <c r="F31">
+        <v>61.73041431652373</v>
+      </c>
+      <c r="G31">
+        <v>272.5434918701566</v>
+      </c>
+      <c r="H31">
+        <v>117.330969321071</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>50030</v>
+      </c>
+      <c r="C32">
+        <v>41996.35319349152</v>
+      </c>
+      <c r="D32">
+        <v>0.00547878298672515</v>
+      </c>
+      <c r="E32">
+        <v>0.06149821486292811</v>
+      </c>
+      <c r="F32">
+        <v>61.24218852318698</v>
+      </c>
+      <c r="G32">
+        <v>272.7533997751711</v>
+      </c>
+      <c r="H32">
+        <v>120.7919560364619</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>50031</v>
+      </c>
+      <c r="C33">
+        <v>41996.42832247941</v>
+      </c>
+      <c r="D33">
+        <v>0.005557751877026436</v>
+      </c>
+      <c r="E33">
+        <v>0.06485993508428449</v>
+      </c>
+      <c r="F33">
+        <v>61.25315780542384</v>
+      </c>
+      <c r="G33">
+        <v>272.4526955584709</v>
+      </c>
+      <c r="H33">
+        <v>124.2662528379121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>50032</v>
+      </c>
+      <c r="C34">
+        <v>41996.44250240771</v>
+      </c>
+      <c r="D34">
+        <v>0.005637599897686337</v>
+      </c>
+      <c r="E34">
+        <v>0.06811652295908296</v>
+      </c>
+      <c r="F34">
+        <v>61.68733333149515</v>
+      </c>
+      <c r="G34">
+        <v>271.7164549603724</v>
+      </c>
+      <c r="H34">
+        <v>127.7544961196463</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>50033</v>
+      </c>
+      <c r="C35">
+        <v>41996.3864067274</v>
+      </c>
+      <c r="D35">
+        <v>0.005719758182166591</v>
+      </c>
+      <c r="E35">
+        <v>0.0711186117129749</v>
+      </c>
+      <c r="F35">
+        <v>62.43075784706338</v>
+      </c>
+      <c r="G35">
+        <v>270.6648953551003</v>
+      </c>
+      <c r="H35">
+        <v>131.2501347630167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>50034</v>
+      </c>
+      <c r="C36">
+        <v>41996.25567252921</v>
+      </c>
+      <c r="D36">
+        <v>0.005805201076597814</v>
+      </c>
+      <c r="E36">
+        <v>0.07376349795123963</v>
+      </c>
+      <c r="F36">
+        <v>63.35600881264329</v>
+      </c>
+      <c r="G36">
+        <v>269.4359211949712</v>
+      </c>
+      <c r="H36">
+        <v>134.7424006649895</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>50035</v>
+      </c>
+      <c r="C37">
+        <v>41996.04883055761</v>
+      </c>
+      <c r="D37">
+        <v>0.005894416643293542</v>
+      </c>
+      <c r="E37">
+        <v>0.07599759403648487</v>
+      </c>
+      <c r="F37">
+        <v>64.33404325129261</v>
+      </c>
+      <c r="G37">
+        <v>268.1705796201247</v>
+      </c>
+      <c r="H37">
+        <v>138.2190195077797</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>50036</v>
+      </c>
+      <c r="C38">
+        <v>41995.76633319615</v>
+      </c>
+      <c r="D38">
+        <v>0.005987457685415625</v>
+      </c>
+      <c r="E38">
+        <v>0.07781871761685155</v>
+      </c>
+      <c r="F38">
+        <v>65.23842266293755</v>
+      </c>
+      <c r="G38">
+        <v>267.0069911312377</v>
+      </c>
+      <c r="H38">
+        <v>141.6680609512489</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>50037</v>
+      </c>
+      <c r="C39">
+        <v>41995.41156053961</v>
+      </c>
+      <c r="D39">
+        <v>0.006084003876117613</v>
+      </c>
+      <c r="E39">
+        <v>0.0792819658300912</v>
+      </c>
+      <c r="F39">
+        <v>65.94776734617612</v>
+      </c>
+      <c r="G39">
+        <v>266.0770003773297</v>
+      </c>
+      <c r="H39">
+        <v>145.0788377072248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>50038</v>
+      </c>
+      <c r="C40">
+        <v>41994.99436330857</v>
+      </c>
+      <c r="D40">
+        <v>0.006183376645455279</v>
+      </c>
+      <c r="E40">
+        <v>0.0805095865934039</v>
+      </c>
+      <c r="F40">
+        <v>66.35253267760261</v>
+      </c>
+      <c r="G40">
+        <v>265.4991386373876</v>
+      </c>
+      <c r="H40">
+        <v>148.4421737098814</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>50039</v>
+      </c>
+      <c r="C41">
+        <v>41994.53693689729</v>
+      </c>
+      <c r="D41">
+        <v>0.006284478161485593</v>
+      </c>
+      <c r="E41">
+        <v>0.08170002129714923</v>
+      </c>
+      <c r="F41">
+        <v>66.37224288890992</v>
+      </c>
+      <c r="G41">
+        <v>265.3611544321597</v>
+      </c>
+      <c r="H41">
+        <v>151.750653314538</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>50040</v>
+      </c>
+      <c r="C42">
+        <v>41994.08008388653</v>
+      </c>
+      <c r="D42">
+        <v>0.006385682274326994</v>
+      </c>
+      <c r="E42">
+        <v>0.08312343274047487</v>
+      </c>
+      <c r="F42">
+        <v>65.98650828972997</v>
+      </c>
+      <c r="G42">
+        <v>265.688025595712</v>
+      </c>
+      <c r="H42">
+        <v>154.9996137495904</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>50041</v>
+      </c>
+      <c r="C43">
+        <v>41993.68520509235</v>
+      </c>
+      <c r="D43">
+        <v>0.006484794208871176</v>
+      </c>
+      <c r="E43">
+        <v>0.08508381067706244</v>
+      </c>
+      <c r="F43">
+        <v>65.27247507350356</v>
+      </c>
+      <c r="G43">
+        <v>266.4022290213084</v>
+      </c>
+      <c r="H43">
+        <v>158.1894502032723</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>50042</v>
+      </c>
+      <c r="C44">
+        <v>41993.42554121071</v>
+      </c>
+      <c r="D44">
+        <v>0.006579276835572855</v>
+      </c>
+      <c r="E44">
+        <v>0.08783290773294979</v>
+      </c>
+      <c r="F44">
+        <v>64.42239263659998</v>
+      </c>
+      <c r="G44">
+        <v>267.3028854833138</v>
+      </c>
+      <c r="H44">
+        <v>161.3289138754404</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>50043</v>
+      </c>
+      <c r="C45">
+        <v>41993.36342816806</v>
+      </c>
+      <c r="D45">
+        <v>0.006666897434192715</v>
+      </c>
+      <c r="E45">
+        <v>0.09145314281894729</v>
+      </c>
+      <c r="F45">
+        <v>63.70599109176315</v>
+      </c>
+      <c r="G45">
+        <v>268.1009370759865</v>
+      </c>
+      <c r="H45">
+        <v>164.4375253498038</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>50044</v>
+      </c>
+      <c r="C46">
+        <v>41993.52098655421</v>
+      </c>
+      <c r="D46">
+        <v>0.006746675265453977</v>
+      </c>
+      <c r="E46">
+        <v>0.09577381079794789</v>
+      </c>
+      <c r="F46">
+        <v>63.37323156222727</v>
+      </c>
+      <c r="G46">
+        <v>268.5177133652421</v>
+      </c>
+      <c r="H46">
+        <v>167.544168582609</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>50045</v>
+      </c>
+      <c r="C47">
+        <v>41993.8627396572</v>
+      </c>
+      <c r="D47">
+        <v>0.006819636591164231</v>
+      </c>
+      <c r="E47">
+        <v>0.1003937947869257</v>
+      </c>
+      <c r="F47">
+        <v>63.55085061104558</v>
+      </c>
+      <c r="G47">
+        <v>268.3951232384269</v>
+      </c>
+      <c r="H47">
+        <v>170.6802363318349</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>50046</v>
+      </c>
+      <c r="C48">
+        <v>41994.30565553149</v>
+      </c>
+      <c r="D48">
+        <v>0.006888807155671933</v>
+      </c>
+      <c r="E48">
+        <v>0.1048189528632878</v>
+      </c>
+      <c r="F48">
+        <v>64.20078549703457</v>
+      </c>
+      <c r="G48">
+        <v>267.7473175754452</v>
+      </c>
+      <c r="H48">
+        <v>173.8694711481568</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>50047</v>
+      </c>
+      <c r="C49">
+        <v>41994.75219491206</v>
+      </c>
+      <c r="D49">
+        <v>0.006958313085139898</v>
+      </c>
+      <c r="E49">
+        <v>0.1086382947583311</v>
+      </c>
+      <c r="F49">
+        <v>65.1559213312556</v>
+      </c>
+      <c r="G49">
+        <v>266.7331704482096</v>
+      </c>
+      <c r="H49">
+        <v>177.1197736169669</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>50048</v>
+      </c>
+      <c r="C50">
+        <v>41995.12451405383</v>
+      </c>
+      <c r="D50">
+        <v>0.00703206487798246</v>
+      </c>
+      <c r="E50">
+        <v>0.1116452476557632</v>
+      </c>
+      <c r="F50">
+        <v>66.19475874584553</v>
+      </c>
+      <c r="G50">
+        <v>265.5835283111223</v>
+      </c>
+      <c r="H50">
+        <v>180.4214081641989</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>50049</v>
+      </c>
+      <c r="C51">
+        <v>41995.38120635907</v>
+      </c>
+      <c r="D51">
+        <v>0.007112704815234744</v>
+      </c>
+      <c r="E51">
+        <v>0.1138634203219014</v>
+      </c>
+      <c r="F51">
+        <v>67.11105494313964</v>
+      </c>
+      <c r="G51">
+        <v>264.5268425805434</v>
+      </c>
+      <c r="H51">
+        <v>183.7518532444199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>50050</v>
+      </c>
+      <c r="C52">
+        <v>41995.51474985838</v>
+      </c>
+      <c r="D52">
+        <v>0.00720119993729084</v>
+      </c>
+      <c r="E52">
+        <v>0.1154967359104596</v>
+      </c>
+      <c r="F52">
+        <v>67.75814717821525</v>
+      </c>
+      <c r="G52">
+        <v>263.7368576437729</v>
+      </c>
+      <c r="H52">
+        <v>187.0838478329239</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>50051</v>
+      </c>
+      <c r="C53">
+        <v>41995.53937077049</v>
+      </c>
+      <c r="D53">
+        <v>0.007297025730797284</v>
+      </c>
+      <c r="E53">
+        <v>0.1168467758022184</v>
+      </c>
+      <c r="F53">
+        <v>68.06776313889874</v>
+      </c>
+      <c r="G53">
+        <v>263.3065646116646</v>
+      </c>
+      <c r="H53">
+        <v>190.392614063401</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>50052</v>
+      </c>
+      <c r="C54">
+        <v>41995.47900170885</v>
+      </c>
+      <c r="D54">
+        <v>0.007398654303292571</v>
+      </c>
+      <c r="E54">
+        <v>0.1182307122898558</v>
+      </c>
+      <c r="F54">
+        <v>68.04986179827368</v>
+      </c>
+      <c r="G54">
+        <v>263.2440582410649</v>
+      </c>
+      <c r="H54">
+        <v>193.660108890431</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>50053</v>
+      </c>
+      <c r="C55">
+        <v>41995.35961292746</v>
+      </c>
+      <c r="D55">
+        <v>0.007504079812985317</v>
+      </c>
+      <c r="E55">
+        <v>0.1199159891355151</v>
+      </c>
+      <c r="F55">
+        <v>67.7789323132055</v>
+      </c>
+      <c r="G55">
+        <v>263.4849368349533</v>
+      </c>
+      <c r="H55">
+        <v>196.8762717484339</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>50054</v>
+      </c>
+      <c r="C56">
+        <v>41995.20584432915</v>
+      </c>
+      <c r="D56">
+        <v>0.007611240458020132</v>
+      </c>
+      <c r="E56">
+        <v>0.1220773335626927</v>
+      </c>
+      <c r="F56">
+        <v>67.37045640884908</v>
+      </c>
+      <c r="G56">
+        <v>263.9165502052734</v>
+      </c>
+      <c r="H56">
+        <v>200.0382753680554</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>50055</v>
+      </c>
+      <c r="C57">
+        <v>41995.04021849591</v>
+      </c>
+      <c r="D57">
+        <v>0.007718302908696344</v>
+      </c>
+      <c r="E57">
+        <v>0.1247777754148211</v>
+      </c>
+      <c r="F57">
+        <v>66.95213481173572</v>
+      </c>
+      <c r="G57">
+        <v>264.408455594525</v>
+      </c>
+      <c r="H57">
+        <v>203.1488228960531</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>50056</v>
+      </c>
+      <c r="C58">
+        <v>41994.88328465501</v>
+      </c>
+      <c r="D58">
+        <v>0.007823823008799229</v>
+      </c>
+      <c r="E58">
+        <v>0.1279729068900195</v>
+      </c>
+      <c r="F58">
+        <v>66.63656972127535</v>
+      </c>
+      <c r="G58">
+        <v>264.841700682552</v>
+      </c>
+      <c r="H58">
+        <v>206.2141774083229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>50057</v>
+      </c>
+      <c r="C59">
+        <v>41994.75369423112</v>
+      </c>
+      <c r="D59">
+        <v>0.007926804373077762</v>
+      </c>
+      <c r="E59">
+        <v>0.1315339548922211</v>
+      </c>
+      <c r="F59">
+        <v>66.50206937436478</v>
+      </c>
+      <c r="G59">
+        <v>265.1298900102746</v>
+      </c>
+      <c r="H59">
+        <v>209.2422971836333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>50058</v>
+      </c>
+      <c r="C60">
+        <v>41994.66786742857</v>
+      </c>
+      <c r="D60">
+        <v>0.008026673082027338</v>
+      </c>
+      <c r="E60">
+        <v>0.1352816924607273</v>
+      </c>
+      <c r="F60">
+        <v>66.58489393869469</v>
+      </c>
+      <c r="G60">
+        <v>265.2284915051134</v>
+      </c>
+      <c r="H60">
+        <v>212.2412967874487</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>50059</v>
+      </c>
+      <c r="C61">
+        <v>41994.63938005266</v>
+      </c>
+      <c r="D61">
+        <v>0.008123188467156785</v>
+      </c>
+      <c r="E61">
+        <v>0.1390221744108999</v>
+      </c>
+      <c r="F61">
+        <v>66.88171976348865</v>
+      </c>
+      <c r="G61">
+        <v>265.133441291876</v>
+      </c>
+      <c r="H61">
+        <v>215.2183951195165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>50060</v>
+      </c>
+      <c r="C62">
+        <v>41994.67841809247</v>
+      </c>
+      <c r="D62">
+        <v>0.008216318550764918</v>
+      </c>
+      <c r="E62">
+        <v>0.1425772810484449</v>
+      </c>
+      <c r="F62">
+        <v>67.35823601531189</v>
+      </c>
+      <c r="G62">
+        <v>264.8730275574343</v>
+      </c>
+      <c r="H62">
+        <v>218.1794525108025</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>50061</v>
+      </c>
+      <c r="C63">
+        <v>41994.79160695687</v>
+      </c>
+      <c r="D63">
+        <v>0.008306117080677359</v>
+      </c>
+      <c r="E63">
+        <v>0.1458066677742511</v>
+      </c>
+      <c r="F63">
+        <v>67.95955822138612</v>
+      </c>
+      <c r="G63">
+        <v>264.4973659778697</v>
+      </c>
+      <c r="H63">
+        <v>221.1290976059716</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>50062</v>
+      </c>
+      <c r="C64">
+        <v>41994.98228154057</v>
+      </c>
+      <c r="D64">
+        <v>0.008392640513277072</v>
+      </c>
+      <c r="E64">
+        <v>0.1486211547310279</v>
+      </c>
+      <c r="F64">
+        <v>68.61960322403019</v>
+      </c>
+      <c r="G64">
+        <v>264.0684457578839</v>
+      </c>
+      <c r="H64">
+        <v>224.0713195047562</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>50063</v>
+      </c>
+      <c r="C65">
+        <v>41995.25093589391</v>
+      </c>
+      <c r="D65">
+        <v>0.008475936430542489</v>
+      </c>
+      <c r="E65">
+        <v>0.1509897864604873</v>
+      </c>
+      <c r="F65">
+        <v>69.26840089024802</v>
+      </c>
+      <c r="G65">
+        <v>263.6520045788316</v>
+      </c>
+      <c r="H65">
+        <v>227.0102917722209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>50064</v>
+      </c>
+      <c r="C66">
+        <v>41995.59528905477</v>
+      </c>
+      <c r="D66">
+        <v>0.008556122958632862</v>
+      </c>
+      <c r="E66">
+        <v>0.1529434480717702</v>
+      </c>
+      <c r="F66">
+        <v>69.83779070594218</v>
+      </c>
+      <c r="G66">
+        <v>263.3110953930129</v>
+      </c>
+      <c r="H66">
+        <v>229.9511181425846</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>50065</v>
+      </c>
+      <c r="C67">
+        <v>41996.00919625566</v>
+      </c>
+      <c r="D67">
+        <v>0.00863356345405324</v>
+      </c>
+      <c r="E67">
+        <v>0.1545770674697291</v>
+      </c>
+      <c r="F67">
+        <v>70.26691274445908</v>
+      </c>
+      <c r="G67">
+        <v>263.1003148727744</v>
+      </c>
+      <c r="H67">
+        <v>232.9001210459616</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>50066</v>
+      </c>
+      <c r="C68">
+        <v>41996.47960295909</v>
+      </c>
+      <c r="D68">
+        <v>0.008709115099995097</v>
+      </c>
+      <c r="E68">
+        <v>0.1560500708409272</v>
+      </c>
+      <c r="F68">
+        <v>70.50934190736281</v>
+      </c>
+      <c r="G68">
+        <v>263.0593119600957</v>
+      </c>
+      <c r="H68">
+        <v>235.8642039909065</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>50067</v>
+      </c>
+      <c r="C69">
+        <v>41996.98113598279</v>
+      </c>
+      <c r="D69">
+        <v>0.008784376236522061</v>
+      </c>
+      <c r="E69">
+        <v>0.1575809523712041</v>
+      </c>
+      <c r="F69">
+        <v>70.54334114209689</v>
+      </c>
+      <c r="G69">
+        <v>263.2046194976543</v>
+      </c>
+      <c r="H69">
+        <v>238.8487635997737</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>50068</v>
+      </c>
+      <c r="C70">
+        <v>41997.46934667231</v>
+      </c>
+      <c r="D70">
+        <v>0.008861758968721592</v>
+      </c>
+      <c r="E70">
+        <v>0.1594274786219532</v>
+      </c>
+      <c r="F70">
+        <v>70.38477100254083</v>
+      </c>
+      <c r="G70">
+        <v>263.5205336716587</v>
+      </c>
+      <c r="H70">
+        <v>241.8538787825242</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>50069</v>
+      </c>
+      <c r="C71">
+        <v>41997.87676499278</v>
+      </c>
+      <c r="D71">
+        <v>0.008944101854960834</v>
+      </c>
+      <c r="E71">
+        <v>0.1618424412726258</v>
+      </c>
+      <c r="F71">
+        <v>70.09803683270667</v>
+      </c>
+      <c r="G71">
+        <v>263.9528347854372</v>
+      </c>
+      <c r="H71">
+        <v>244.8695900338615</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>50070</v>
+      </c>
+      <c r="C72">
+        <v>41998.1200808199</v>
+      </c>
+      <c r="D72">
+        <v>0.00903356766368211</v>
+      </c>
+      <c r="E72">
+        <v>0.1650020555367757</v>
+      </c>
+      <c r="F72">
+        <v>69.79546767064126</v>
+      </c>
+      <c r="G72">
+        <v>264.4119280417692</v>
+      </c>
+      <c r="H72">
+        <v>247.8732942023998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>50071</v>
+      </c>
+      <c r="C73">
+        <v>41998.12697420865</v>
+      </c>
+      <c r="D73">
+        <v>0.00913000975733815</v>
+      </c>
+      <c r="E73">
+        <v>0.1689239666036091</v>
+      </c>
+      <c r="F73">
+        <v>69.6151104204468</v>
+      </c>
+      <c r="G73">
+        <v>264.7904835940809</v>
+      </c>
+      <c r="H73">
+        <v>250.8342206585995</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>50072</v>
+      </c>
+      <c r="C74">
+        <v>41997.87885913545</v>
+      </c>
+      <c r="D74">
+        <v>0.009229842173530761</v>
+      </c>
+      <c r="E74">
+        <v>0.1734153822918597</v>
+      </c>
+      <c r="F74">
+        <v>69.67721569062316</v>
+      </c>
+      <c r="G74">
+        <v>264.9927454717101</v>
+      </c>
+      <c r="H74">
+        <v>253.7276090471364</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>50073</v>
+      </c>
+      <c r="C75">
+        <v>41997.44247545287</v>
+      </c>
+      <c r="D75">
+        <v>0.009326864712263325</v>
+      </c>
+      <c r="E75">
+        <v>0.178095541398383</v>
+      </c>
+      <c r="F75">
+        <v>70.0371399978625</v>
+      </c>
+      <c r="G75">
+        <v>264.9642344864684</v>
+      </c>
+      <c r="H75">
+        <v>256.5521998635751</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>50074</v>
+      </c>
+      <c r="C76">
+        <v>41996.95556532367</v>
+      </c>
+      <c r="D76">
+        <v>0.009415278987996644</v>
+      </c>
+      <c r="E76">
+        <v>0.1825047597548206</v>
+      </c>
+      <c r="F76">
+        <v>70.66089868380429</v>
+      </c>
+      <c r="G76">
+        <v>264.710043397011</v>
+      </c>
+      <c r="H76">
+        <v>259.3365822359305</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>50075</v>
+      </c>
+      <c r="C77">
+        <v>41996.56561390654</v>
+      </c>
+      <c r="D77">
+        <v>0.009492894554556805</v>
+      </c>
+      <c r="E77">
+        <v>0.1862601208926624</v>
+      </c>
+      <c r="F77">
+        <v>71.43799921536583</v>
+      </c>
+      <c r="G77">
+        <v>264.2953554508719</v>
+      </c>
+      <c r="H77">
+        <v>262.1260175144129</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>50076</v>
+      </c>
+      <c r="C78">
+        <v>41996.36612509832</v>
+      </c>
+      <c r="D78">
+        <v>0.009561986616152979</v>
+      </c>
+      <c r="E78">
+        <v>0.1891832998367169</v>
+      </c>
+      <c r="F78">
+        <v>72.22364252208325</v>
+      </c>
+      <c r="G78">
+        <v>263.8267645914024</v>
+      </c>
+      <c r="H78">
+        <v>264.9589604899766</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>50077</v>
+      </c>
+      <c r="C79">
+        <v>41996.37419387758</v>
+      </c>
+      <c r="D79">
+        <v>0.009627433442100109</v>
+      </c>
+      <c r="E79">
+        <v>0.1913393067422249</v>
+      </c>
+      <c r="F79">
+        <v>72.8875454793221</v>
+      </c>
+      <c r="G79">
+        <v>263.4192933130044</v>
+      </c>
+      <c r="H79">
+        <v>267.8511273540776</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>50078</v>
+      </c>
+      <c r="C80">
+        <v>41996.55057921387</v>
+      </c>
+      <c r="D80">
+        <v>0.009694018916725465</v>
+      </c>
+      <c r="E80">
+        <v>0.192979874111754</v>
+      </c>
+      <c r="F80">
+        <v>73.34826624220759</v>
+      </c>
+      <c r="G80">
+        <v>263.1619720213719</v>
+      </c>
+      <c r="H80">
+        <v>270.7954488940931</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>50079</v>
+      </c>
+      <c r="C81">
+        <v>41996.83405553377</v>
+      </c>
+      <c r="D81">
+        <v>0.009764776362092864</v>
+      </c>
+      <c r="E81">
+        <v>0.1944367301987331</v>
+      </c>
+      <c r="F81">
+        <v>73.58444235982621</v>
+      </c>
+      <c r="G81">
+        <v>263.0962193983281</v>
+      </c>
+      <c r="H81">
+        <v>273.7723389754262</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>50080</v>
+      </c>
+      <c r="C82">
+        <v>41997.16672797443</v>
+      </c>
+      <c r="D82">
+        <v>0.009840782001468425</v>
+      </c>
+      <c r="E82">
+        <v>0.1960202457660293</v>
+      </c>
+      <c r="F82">
+        <v>73.62664504664822</v>
+      </c>
+      <c r="G82">
+        <v>263.2131080016736</v>
+      </c>
+      <c r="H82">
+        <v>276.7605192507941</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>50081</v>
+      </c>
+      <c r="C83">
+        <v>41997.50458601439</v>
+      </c>
+      <c r="D83">
+        <v>0.009921765510075006</v>
+      </c>
+      <c r="E83">
+        <v>0.1979548457487348</v>
+      </c>
+      <c r="F83">
+        <v>73.53903062086364</v>
+      </c>
+      <c r="G83">
+        <v>263.4655911677591</v>
+      </c>
+      <c r="H83">
+        <v>279.7431320163625</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>50082</v>
+      </c>
+      <c r="C84">
+        <v>41997.81796902949</v>
+      </c>
+      <c r="D84">
+        <v>0.01000683209860555</v>
+      </c>
+      <c r="E84">
+        <v>0.2003544211520005</v>
+      </c>
+      <c r="F84">
+        <v>73.39922756549606</v>
+      </c>
+      <c r="G84">
+        <v>263.7872256235636</v>
+      </c>
+      <c r="H84">
+        <v>282.7091455264599</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>50083</v>
+      </c>
+      <c r="C85">
+        <v>41998.08797779342</v>
+      </c>
+      <c r="D85">
+        <v>0.01009495213111219</v>
+      </c>
+      <c r="E85">
+        <v>0.2032264322982655</v>
+      </c>
+      <c r="F85">
+        <v>73.28159049177971</v>
+      </c>
+      <c r="G85">
+        <v>264.1100946746004</v>
+      </c>
+      <c r="H85">
+        <v>285.6521980980674</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>50084</v>
+      </c>
+      <c r="C86">
+        <v>41998.30257099068</v>
+      </c>
+      <c r="D86">
+        <v>0.01018517597590997</v>
+      </c>
+      <c r="E86">
+        <v>0.2064916469441631</v>
+      </c>
+      <c r="F86">
+        <v>73.24580258229504</v>
+      </c>
+      <c r="G86">
+        <v>264.3780406932471</v>
+      </c>
+      <c r="H86">
+        <v>288.5687825183413</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>50085</v>
+      </c>
+      <c r="C87">
+        <v>41998.45382778118</v>
+      </c>
+      <c r="D87">
+        <v>0.01027665574325955</v>
+      </c>
+      <c r="E87">
+        <v>0.2100102522208289</v>
+      </c>
+      <c r="F87">
+        <v>73.33076559279159</v>
+      </c>
+      <c r="G87">
+        <v>264.554260131988</v>
+      </c>
+      <c r="H87">
+        <v>291.4567767361459</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>50086</v>
+      </c>
+      <c r="C88">
+        <v>41998.53655948758</v>
+      </c>
+      <c r="D88">
+        <v>0.01036857015009715</v>
+      </c>
+      <c r="E88">
+        <v>0.2136093329011961</v>
+      </c>
+      <c r="F88">
+        <v>73.55277653698677</v>
+      </c>
+      <c r="G88">
+        <v>264.6239434325992</v>
+      </c>
+      <c r="H88">
+        <v>294.3146415909335</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>50087</v>
+      </c>
+      <c r="C89">
+        <v>41998.54793524267</v>
+      </c>
+      <c r="D89">
+        <v>0.01046002649880672</v>
+      </c>
+      <c r="E89">
+        <v>0.2171092597320418</v>
+      </c>
+      <c r="F89">
+        <v>73.90675032811421</v>
+      </c>
+      <c r="G89">
+        <v>264.5932207616902</v>
+      </c>
+      <c r="H89">
+        <v>297.1412669594818</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>50088</v>
+      </c>
+      <c r="C90">
+        <v>41998.48762772185</v>
+      </c>
+      <c r="D90">
+        <v>0.01054999005427843</v>
+      </c>
+      <c r="E90">
+        <v>0.2203477031458637</v>
+      </c>
+      <c r="F90">
+        <v>74.36941789039896</v>
+      </c>
+      <c r="G90">
+        <v>264.4856535205327</v>
+      </c>
+      <c r="H90">
+        <v>299.9362981035953</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>50089</v>
+      </c>
+      <c r="C91">
+        <v>41998.35804156266</v>
+      </c>
+      <c r="D91">
+        <v>0.01063727040425</v>
+      </c>
+      <c r="E91">
+        <v>0.2232001916455057</v>
+      </c>
+      <c r="F91">
+        <v>74.90369770909497</v>
+      </c>
+      <c r="G91">
+        <v>264.33729144982</v>
+      </c>
+      <c r="H91">
+        <v>302.7007236199491</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>50090</v>
+      </c>
+      <c r="C92">
+        <v>41998.16435540127</v>
+      </c>
+      <c r="D92">
+        <v>0.01072057610044847</v>
+      </c>
+      <c r="E92">
+        <v>0.2255961930090596</v>
+      </c>
+      <c r="F92">
+        <v>75.46369674840795</v>
+      </c>
+      <c r="G92">
+        <v>264.1910583211629</v>
+      </c>
+      <c r="H92">
+        <v>305.4375039180378</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>50091</v>
+      </c>
+      <c r="C93">
+        <v>41997.91434807574</v>
+      </c>
+      <c r="D93">
+        <v>0.01079863346845616</v>
+      </c>
+      <c r="E93">
+        <v>0.2275299408800248</v>
+      </c>
+      <c r="F93">
+        <v>76.00001920020563</v>
+      </c>
+      <c r="G93">
+        <v>264.090965162689</v>
+      </c>
+      <c r="H93">
+        <v>308.1520602574726</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>50092</v>
+      </c>
+      <c r="C94">
+        <v>41997.61821824824</v>
+      </c>
+      <c r="D94">
+        <v>0.01087035678972761</v>
+      </c>
+      <c r="E94">
+        <v>0.2290655972259368</v>
+      </c>
+      <c r="F94">
+        <v>76.46527682997541</v>
+      </c>
+      <c r="G94">
+        <v>264.0763662623322</v>
+      </c>
+      <c r="H94">
+        <v>310.8525134919065</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>50093</v>
+      </c>
+      <c r="C95">
+        <v>41997.2887661351</v>
+      </c>
+      <c r="D95">
+        <v>0.01093505767965052</v>
+      </c>
+      <c r="E95">
+        <v>0.230336415902072</v>
+      </c>
+      <c r="F95">
+        <v>76.81989653832767</v>
+      </c>
+      <c r="G95">
+        <v>264.1762156237273</v>
+      </c>
+      <c r="H95">
+        <v>313.549618781519</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>50094</v>
+      </c>
+      <c r="C96">
+        <v>41996.94232392859</v>
+      </c>
+      <c r="D96">
+        <v>0.01099268763265506</v>
+      </c>
+      <c r="E96">
+        <v>0.2315368638481985</v>
+      </c>
+      <c r="F96">
+        <v>77.03840194137285</v>
+      </c>
+      <c r="G96">
+        <v>264.4032068422214</v>
+      </c>
+      <c r="H96">
+        <v>316.2563373392507</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>50095</v>
+      </c>
+      <c r="C97">
+        <v>41996.60063896798</v>
+      </c>
+      <c r="D97">
+        <v>0.01104410693493732</v>
+      </c>
+      <c r="E97">
+        <v>0.232905030122772</v>
+      </c>
+      <c r="F97">
+        <v>77.1160720874233</v>
+      </c>
+      <c r="G97">
+        <v>264.7480505558837</v>
+      </c>
+      <c r="H97">
+        <v>318.9868893505341</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>50096</v>
+      </c>
+      <c r="C98">
+        <v>41996.29341012803</v>
+      </c>
+      <c r="D98">
+        <v>0.01109134552360562</v>
+      </c>
+      <c r="E98">
+        <v>0.2346908914341604</v>
+      </c>
+      <c r="F98">
+        <v>77.07496472569339</v>
+      </c>
+      <c r="G98">
+        <v>265.1752173111497</v>
+      </c>
+      <c r="H98">
+        <v>321.7549740500284</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>50097</v>
+      </c>
+      <c r="C99">
+        <v>41996.06013011517</v>
+      </c>
+      <c r="D99">
+        <v>0.01113774657176858</v>
+      </c>
+      <c r="E99">
+        <v>0.2371063868632652</v>
+      </c>
+      <c r="F99">
+        <v>76.96668871289067</v>
+      </c>
+      <c r="G99">
+        <v>265.6231517442259</v>
+      </c>
+      <c r="H99">
+        <v>324.570767367546</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>50098</v>
+      </c>
+      <c r="C100">
+        <v>41995.94816076633</v>
+      </c>
+      <c r="D100">
+        <v>0.01118776415338149</v>
+      </c>
+      <c r="E100">
+        <v>0.2402594244127767</v>
+      </c>
+      <c r="F100">
+        <v>76.86779151755879</v>
+      </c>
+      <c r="G100">
+        <v>266.0131620419897</v>
+      </c>
+      <c r="H100">
+        <v>327.4366282725213</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>50099</v>
+      </c>
+      <c r="C101">
+        <v>41996.00228346197</v>
+      </c>
+      <c r="D101">
+        <v>0.0112461008918111</v>
+      </c>
+      <c r="E101">
+        <v>0.2440882840903242</v>
+      </c>
+      <c r="F101">
+        <v>76.8641666545726</v>
+      </c>
+      <c r="G101">
+        <v>266.269527347296</v>
+      </c>
+      <c r="H101">
+        <v>330.3425677179674</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>50100</v>
+      </c>
+      <c r="C102">
+        <v>41996.24219385564</v>
+      </c>
+      <c r="D102">
+        <v>0.01131602697830562</v>
+      </c>
+      <c r="E102">
+        <v>0.2483304460142369</v>
+      </c>
+      <c r="F102">
+        <v>77.02555366460149</v>
+      </c>
+      <c r="G102">
+        <v>266.3468185361545</v>
+      </c>
+      <c r="H102">
+        <v>333.2644120594837</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>50101</v>
+      </c>
+      <c r="C103">
+        <v>41996.63321348705</v>
+      </c>
+      <c r="D103">
+        <v>0.011397346818765</v>
+      </c>
+      <c r="E103">
+        <v>0.2525638819923571</v>
+      </c>
+      <c r="F103">
+        <v>77.37898483761658</v>
+      </c>
+      <c r="G103">
+        <v>266.2515654390069</v>
+      </c>
+      <c r="H103">
+        <v>336.1686696071686</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>50102</v>
+      </c>
+      <c r="C104">
+        <v>41997.07127969851</v>
+      </c>
+      <c r="D104">
+        <v>0.01148536481623784</v>
+      </c>
+      <c r="E104">
+        <v>0.2563304908812533</v>
+      </c>
+      <c r="F104">
+        <v>77.89488297532857</v>
+      </c>
+      <c r="G104">
+        <v>266.0433243259827</v>
+      </c>
+      <c r="H104">
+        <v>339.0253402234764</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>50103</v>
+      </c>
+      <c r="C105">
+        <v>41997.40885590464</v>
+      </c>
+      <c r="D105">
+        <v>0.01157228640607492</v>
+      </c>
+      <c r="E105">
+        <v>0.2592967888253017</v>
+      </c>
+      <c r="F105">
+        <v>78.49504469767209</v>
+      </c>
+      <c r="G105">
+        <v>265.8119362249392</v>
+      </c>
+      <c r="H105">
+        <v>341.8226619998889</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>50104</v>
+      </c>
+      <c r="C106">
+        <v>41997.5206709231</v>
+      </c>
+      <c r="D106">
+        <v>0.01165080456857548</v>
+      </c>
+      <c r="E106">
+        <v>0.2613699151965219</v>
+      </c>
+      <c r="F106">
+        <v>79.07967024628606</v>
+      </c>
+      <c r="G106">
+        <v>265.6448474750052</v>
+      </c>
+      <c r="H106">
+        <v>344.5728025818229</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>50105</v>
+      </c>
+      <c r="C107">
+        <v>41997.36386463729</v>
+      </c>
+      <c r="D107">
+        <v>0.01171741131422365</v>
+      </c>
+      <c r="E107">
+        <v>0.2627091703239611</v>
+      </c>
+      <c r="F107">
+        <v>79.56050135421437</v>
+      </c>
+      <c r="G107">
+        <v>265.6025909813806</v>
+      </c>
+      <c r="H107">
+        <v>347.3033411808668</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>50106</v>
+      </c>
+      <c r="C108">
+        <v>41996.98522739225</v>
+      </c>
+      <c r="D108">
+        <v>0.01177307066261536</v>
+      </c>
+      <c r="E108">
+        <v>0.2636394205479189</v>
+      </c>
+      <c r="F108">
+        <v>79.88579566017404</v>
+      </c>
+      <c r="G108">
+        <v>265.7093387604965</v>
+      </c>
+      <c r="H108">
+        <v>350.0418333623013</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>50107</v>
+      </c>
+      <c r="C109">
+        <v>41996.47928190496</v>
+      </c>
+      <c r="D109">
+        <v>0.01182142375693203</v>
+      </c>
+      <c r="E109">
+        <v>0.2645246798417425</v>
+      </c>
+      <c r="F109">
+        <v>80.04895052141022</v>
+      </c>
+      <c r="G109">
+        <v>265.954922143196</v>
+      </c>
+      <c r="H109">
+        <v>352.8051725402077</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>50108</v>
+      </c>
+      <c r="C110">
+        <v>41995.93915742258</v>
+      </c>
+      <c r="D110">
+        <v>0.01186650776061257</v>
+      </c>
+      <c r="E110">
+        <v>0.2656634322913592</v>
+      </c>
+      <c r="F110">
+        <v>80.08125996826988</v>
+      </c>
+      <c r="G110">
+        <v>266.3033986123713</v>
+      </c>
+      <c r="H110">
+        <v>355.5981901869814</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>50109</v>
+      </c>
+      <c r="C111">
+        <v>41995.43037720946</v>
+      </c>
+      <c r="D111">
+        <v>0.01191144658936396</v>
+      </c>
+      <c r="E111">
+        <v>0.2672356524823341</v>
+      </c>
+      <c r="F111">
+        <v>80.03580295760013</v>
+      </c>
+      <c r="G111">
+        <v>266.7049085971439</v>
+      </c>
+      <c r="H111">
+        <v>358.4178199889768</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>50110</v>
+      </c>
+      <c r="C112">
+        <v>41994.98835854647</v>
+      </c>
+      <c r="D112">
+        <v>0.01195821691946433</v>
+      </c>
+      <c r="E112">
+        <v>0.2692976765100804</v>
+      </c>
+      <c r="F112">
+        <v>79.97073707834279</v>
+      </c>
+      <c r="G112">
+        <v>267.1077091818231</v>
+      </c>
+      <c r="H112">
+        <v>1.257716066092944</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>50111</v>
+      </c>
+      <c r="C113">
+        <v>41994.62709663747</v>
+      </c>
+      <c r="D113">
+        <v>0.01200794180302494</v>
+      </c>
+      <c r="E113">
+        <v>0.2718048085096733</v>
+      </c>
+      <c r="F113">
+        <v>79.93714084384955</v>
+      </c>
+      <c r="G113">
+        <v>267.4676176494492</v>
+      </c>
+      <c r="H113">
+        <v>4.110955965032638</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>50112</v>
+      </c>
+      <c r="C114">
+        <v>41994.34889939451</v>
+      </c>
+      <c r="D114">
+        <v>0.01206124211272864</v>
+      </c>
+      <c r="E114">
+        <v>0.2746425024881826</v>
+      </c>
+      <c r="F114">
+        <v>79.97250390807878</v>
+      </c>
+      <c r="G114">
+        <v>267.7536891431716</v>
+      </c>
+      <c r="H114">
+        <v>6.970887692578041</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>50113</v>
+      </c>
+      <c r="C115">
+        <v>41994.15110274404</v>
+      </c>
+      <c r="D115">
+        <v>0.01211844554635043</v>
+      </c>
+      <c r="E115">
+        <v>0.2776553327034374</v>
+      </c>
+      <c r="F115">
+        <v>80.09853317419059</v>
+      </c>
+      <c r="G115">
+        <v>267.9505675487313</v>
+      </c>
+      <c r="H115">
+        <v>9.830996434921229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>50114</v>
+      </c>
+      <c r="C116">
+        <v>41994.02945092907</v>
+      </c>
+      <c r="D116">
+        <v>0.01217963107653931</v>
+      </c>
+      <c r="E116">
+        <v>0.2806707292414472</v>
+      </c>
+      <c r="F116">
+        <v>80.32140824113657</v>
+      </c>
+      <c r="G116">
+        <v>268.0585990976171</v>
+      </c>
+      <c r="H116">
+        <v>12.68455890960544</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>50115</v>
+      </c>
+      <c r="C117">
+        <v>41993.97910367705</v>
+      </c>
+      <c r="D117">
+        <v>0.01224455761248817</v>
+      </c>
+      <c r="E117">
+        <v>0.2835187154470007</v>
+      </c>
+      <c r="F117">
+        <v>80.63313393295289</v>
+      </c>
+      <c r="G117">
+        <v>268.0925976086217</v>
+      </c>
+      <c r="H117">
+        <v>15.52454615561305</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>50116</v>
+      </c>
+      <c r="C118">
+        <v>41993.99432308313</v>
+      </c>
+      <c r="D118">
+        <v>0.01231254540556619</v>
+      </c>
+      <c r="E118">
+        <v>0.2860499683050989</v>
+      </c>
+      <c r="F118">
+        <v>81.01339191264273</v>
+      </c>
+      <c r="G118">
+        <v>268.079646653858</v>
+      </c>
+      <c r="H118">
+        <v>18.34398786731359</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>50117</v>
+      </c>
+      <c r="C119">
+        <v>41994.06765874125</v>
+      </c>
+      <c r="D119">
+        <v>0.01238238264588372</v>
+      </c>
+      <c r="E119">
+        <v>0.2881536311212534</v>
+      </c>
+      <c r="F119">
+        <v>81.43187901096439</v>
+      </c>
+      <c r="G119">
+        <v>268.0559303661295</v>
+      </c>
+      <c r="H119">
+        <v>21.13681951522515</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>50118</v>
+      </c>
+      <c r="C120">
+        <v>41994.18919278945</v>
+      </c>
+      <c r="D120">
+        <v>0.01245232354585356</v>
+      </c>
+      <c r="E120">
+        <v>0.289774488890249</v>
+      </c>
+      <c r="F120">
+        <v>81.85142017626528</v>
+      </c>
+      <c r="G120">
+        <v>268.0624626606697</v>
+      </c>
+      <c r="H120">
+        <v>23.89905412403386</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>50119</v>
+      </c>
+      <c r="C121">
+        <v>41994.34616207108</v>
+      </c>
+      <c r="D121">
+        <v>0.01252022098469912</v>
+      </c>
+      <c r="E121">
+        <v>0.2909271792349264</v>
+      </c>
+      <c r="F121">
+        <v>82.23216623569007</v>
+      </c>
+      <c r="G121">
+        <v>268.1397176623991</v>
+      </c>
+      <c r="H121">
+        <v>26.62996395594838</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>50120</v>
+      </c>
+      <c r="C122">
+        <v>41994.52302917626</v>
+      </c>
+      <c r="D122">
+        <v>0.01258379422458973</v>
+      </c>
+      <c r="E122">
+        <v>0.2917037369198763</v>
+      </c>
+      <c r="F122">
+        <v>82.5369765824834</v>
+      </c>
+      <c r="G122">
+        <v>268.3214436762115</v>
+      </c>
+      <c r="H122">
+        <v>29.33288712264381</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>50121</v>
+      </c>
+      <c r="C123">
+        <v>41994.70186323529</v>
+      </c>
+      <c r="D123">
+        <v>0.0126409825617019</v>
+      </c>
+      <c r="E123">
+        <v>0.2922704635719266</v>
+      </c>
+      <c r="F123">
+        <v>82.73770555358813</v>
+      </c>
+      <c r="G123">
+        <v>268.6282503385506</v>
+      </c>
+      <c r="H123">
+        <v>32.01534839247945</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>50122</v>
+      </c>
+      <c r="C124">
+        <v>41994.86279884801</v>
+      </c>
+      <c r="D124">
+        <v>0.01269030197864338</v>
+      </c>
+      <c r="E124">
+        <v>0.2928510376237951</v>
+      </c>
+      <c r="F124">
+        <v>82.82162820100426</v>
+      </c>
+      <c r="G124">
+        <v>269.0618372790661</v>
+      </c>
+      <c r="H124">
+        <v>34.68838892597485</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>50123</v>
+      </c>
+      <c r="C125">
+        <v>41994.98444906199</v>
+      </c>
+      <c r="D125">
+        <v>0.01273112186649622</v>
+      </c>
+      <c r="E125">
+        <v>0.2936947241349667</v>
+      </c>
+      <c r="F125">
+        <v>82.79672979548843</v>
+      </c>
+      <c r="G125">
+        <v>269.6010060063005</v>
+      </c>
+      <c r="H125">
+        <v>37.36523912963391</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>50124</v>
+      </c>
+      <c r="C126">
+        <v>41995.04448530437</v>
+      </c>
+      <c r="D126">
+        <v>0.01276381149971386</v>
+      </c>
+      <c r="E126">
+        <v>0.2950312303529092</v>
+      </c>
+      <c r="F126">
+        <v>82.69414444095263</v>
+      </c>
+      <c r="G126">
+        <v>270.200886390506</v>
+      </c>
+      <c r="H126">
+        <v>40.05961949102777</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>50125</v>
+      </c>
+      <c r="C127">
+        <v>41995.02110791903</v>
+      </c>
+      <c r="D127">
+        <v>0.01278975094382585</v>
+      </c>
+      <c r="E127">
+        <v>0.2970172423904547</v>
+      </c>
+      <c r="F127">
+        <v>82.56585838033679</v>
+      </c>
+      <c r="G127">
+        <v>270.7969834437919</v>
+      </c>
+      <c r="H127">
+        <v>42.78395132417863</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>50126</v>
+      </c>
+      <c r="C128">
+        <v>41994.89661156909</v>
+      </c>
+      <c r="D128">
+        <v>0.01281123258876248</v>
+      </c>
+      <c r="E128">
+        <v>0.2996843575614649</v>
+      </c>
+      <c r="F128">
+        <v>82.47623808731237</v>
+      </c>
+      <c r="G128">
+        <v>271.3153387489476</v>
+      </c>
+      <c r="H128">
+        <v>45.54762941700805</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>50127</v>
+      </c>
+      <c r="C129">
+        <v>41994.66421255878</v>
+      </c>
+      <c r="D129">
+        <v>0.01283127821624952</v>
+      </c>
+      <c r="E129">
+        <v>0.3029038036733507</v>
+      </c>
+      <c r="F129">
+        <v>82.48739439921346</v>
+      </c>
+      <c r="G129">
+        <v>271.6888145077251</v>
+      </c>
+      <c r="H129">
+        <v>48.3553503370518</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>50128</v>
+      </c>
+      <c r="C130">
+        <v>41994.33790097556</v>
+      </c>
+      <c r="D130">
+        <v>0.01285335469251001</v>
+      </c>
+      <c r="E130">
+        <v>0.3063876050771246</v>
+      </c>
+      <c r="F130">
+        <v>82.64095632514321</v>
+      </c>
+      <c r="G130">
+        <v>271.8769931329686</v>
+      </c>
+      <c r="H130">
+        <v>51.20545119585181</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>50129</v>
+      </c>
+      <c r="C131">
+        <v>41993.96164497156</v>
+      </c>
+      <c r="D131">
+        <v>0.01288090529942003</v>
+      </c>
+      <c r="E131">
+        <v>0.3097429653747685</v>
+      </c>
+      <c r="F131">
+        <v>82.94186586583001</v>
+      </c>
+      <c r="G131">
+        <v>271.8838739559147</v>
+      </c>
+      <c r="H131">
+        <v>54.08848901766831</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>50130</v>
+      </c>
+      <c r="C132">
+        <v>41993.61009606205</v>
+      </c>
+      <c r="D132">
+        <v>0.01291660028502829</v>
+      </c>
+      <c r="E132">
+        <v>0.3125796469311262</v>
+      </c>
+      <c r="F132">
+        <v>83.35165839298023</v>
+      </c>
+      <c r="G132">
+        <v>271.7649822896406</v>
+      </c>
+      <c r="H132">
+        <v>56.9869833589131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>50131</v>
+      </c>
+      <c r="C133">
+        <v>41993.37289160212</v>
+      </c>
+      <c r="D133">
+        <v>0.01296138634868502</v>
+      </c>
+      <c r="E133">
+        <v>0.3146392571591853</v>
+      </c>
+      <c r="F133">
+        <v>83.79703297514784</v>
+      </c>
+      <c r="G133">
+        <v>271.6164796283972</v>
+      </c>
+      <c r="H133">
+        <v>59.87788362211649</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>50132</v>
+      </c>
+      <c r="C134">
+        <v>41993.32387571697</v>
+      </c>
+      <c r="D134">
+        <v>0.01301378915070245</v>
+      </c>
+      <c r="E134">
+        <v>0.3158882907500355</v>
+      </c>
+      <c r="F134">
+        <v>84.19307370027921</v>
+      </c>
+      <c r="G134">
+        <v>271.5459945740134</v>
+      </c>
+      <c r="H134">
+        <v>62.73859258640243</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>50133</v>
+      </c>
+      <c r="C135">
+        <v>41993.49097044705</v>
+      </c>
+      <c r="D135">
+        <v>0.01307011190880285</v>
+      </c>
+      <c r="E135">
+        <v>0.3165229765879602</v>
+      </c>
+      <c r="F135">
+        <v>84.47185364921826</v>
+      </c>
+      <c r="G135">
+        <v>271.636325086588</v>
+      </c>
+      <c r="H135">
+        <v>65.5545979963416</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>50134</v>
+      </c>
+      <c r="C136">
+        <v>41993.84666214647</v>
+      </c>
+      <c r="D136">
+        <v>0.01312570059885533</v>
+      </c>
+      <c r="E136">
+        <v>0.316882177000527</v>
+      </c>
+      <c r="F136">
+        <v>84.60295964266464</v>
+      </c>
+      <c r="G136">
+        <v>271.919938335544</v>
+      </c>
+      <c r="H136">
+        <v>68.3242752184949</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>50135</v>
+      </c>
+      <c r="C137">
+        <v>41994.32467201079</v>
+      </c>
+      <c r="D137">
+        <v>0.01317659883522312</v>
+      </c>
+      <c r="E137">
+        <v>0.3173192703167175</v>
+      </c>
+      <c r="F137">
+        <v>84.59733206865297</v>
+      </c>
+      <c r="G137">
+        <v>272.3760611835186</v>
+      </c>
+      <c r="H137">
+        <v>71.05777948507566</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>50136</v>
+      </c>
+      <c r="C138">
+        <v>41994.84915370558</v>
+      </c>
+      <c r="D138">
+        <v>0.01322063444148649</v>
+      </c>
+      <c r="E138">
+        <v>0.3180981894996497</v>
+      </c>
+      <c r="F138">
+        <v>84.49604984218263</v>
+      </c>
+      <c r="G138">
+        <v>272.9474979734886</v>
+      </c>
+      <c r="H138">
+        <v>73.7713514016057</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>50137</v>
+      </c>
+      <c r="C139">
+        <v>41995.35797471894</v>
+      </c>
+      <c r="D139">
+        <v>0.01325754318376507</v>
+      </c>
+      <c r="E139">
+        <v>0.3193480354604048</v>
+      </c>
+      <c r="F139">
+        <v>84.35279254705115</v>
+      </c>
+      <c r="G139">
+        <v>273.5644248747458</v>
+      </c>
+      <c r="H139">
+        <v>76.48106665575101</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>50138</v>
+      </c>
+      <c r="C140">
+        <v>41995.81167692251</v>
+      </c>
+      <c r="D140">
+        <v>0.01328842876670517</v>
+      </c>
+      <c r="E140">
+        <v>0.3210705365333504</v>
+      </c>
+      <c r="F140">
+        <v>84.21855978387299</v>
+      </c>
+      <c r="G140">
+        <v>274.1635812727499</v>
+      </c>
+      <c r="H140">
+        <v>79.19898516553606</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>50139</v>
+      </c>
+      <c r="C141">
+        <v>41996.19095922305</v>
+      </c>
+      <c r="D141">
+        <v>0.01331507063666187</v>
+      </c>
+      <c r="E141">
+        <v>0.3231748946376511</v>
+      </c>
+      <c r="F141">
+        <v>84.13263899604542</v>
+      </c>
+      <c r="G141">
+        <v>274.6984181720377</v>
+      </c>
+      <c r="H141">
+        <v>81.93210064174724</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>50140</v>
+      </c>
+      <c r="C142">
+        <v>41996.48944638551</v>
+      </c>
+      <c r="D142">
+        <v>0.01333932675634418</v>
+      </c>
+      <c r="E142">
+        <v>0.3255164282326373</v>
+      </c>
+      <c r="F142">
+        <v>84.11915535257673</v>
+      </c>
+      <c r="G142">
+        <v>275.1411121426193</v>
+      </c>
+      <c r="H142">
+        <v>84.68384925742112</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>50141</v>
+      </c>
+      <c r="C143">
+        <v>41996.70701698821</v>
+      </c>
+      <c r="D143">
+        <v>0.01336283579847892</v>
+      </c>
+      <c r="E143">
+        <v>0.327928329125937</v>
+      </c>
+      <c r="F143">
+        <v>84.1875397571428</v>
+      </c>
+      <c r="G143">
+        <v>275.4807990138267</v>
+      </c>
+      <c r="H143">
+        <v>87.45544083890839</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>50142</v>
+      </c>
+      <c r="C144">
+        <v>41996.84613727457</v>
+      </c>
+      <c r="D144">
+        <v>0.01338723498270578</v>
+      </c>
+      <c r="E144">
+        <v>0.3302459765049863</v>
+      </c>
+      <c r="F144">
+        <v>84.33582413885146</v>
+      </c>
+      <c r="G144">
+        <v>275.7233490028992</v>
+      </c>
+      <c r="H144">
+        <v>90.24268282208816</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>50143</v>
+      </c>
+      <c r="C145">
+        <v>41996.91031162554</v>
+      </c>
+      <c r="D145">
+        <v>0.01341378801221872</v>
+      </c>
+      <c r="E145">
+        <v>0.332320605129529</v>
+      </c>
+      <c r="F145">
+        <v>84.55121970223192</v>
+      </c>
+      <c r="G145">
+        <v>275.8865318821884</v>
+      </c>
+      <c r="H145">
+        <v>93.04034815267839</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>50144</v>
+      </c>
+      <c r="C146">
+        <v>41996.90515839499</v>
+      </c>
+      <c r="D146">
+        <v>0.01344336628665308</v>
+      </c>
+      <c r="E146">
+        <v>0.3340331643836534</v>
+      </c>
+      <c r="F146">
+        <v>84.81199586268815</v>
+      </c>
+      <c r="G146">
+        <v>275.9982830422443</v>
+      </c>
+      <c r="H146">
+        <v>95.84202338126777</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>50145</v>
+      </c>
+      <c r="C147">
+        <v>41996.84079424595</v>
+      </c>
+      <c r="D147">
+        <v>0.01347636312208829</v>
+      </c>
+      <c r="E147">
+        <v>0.3353084826360487</v>
+      </c>
+      <c r="F147">
+        <v>85.0892177005462</v>
+      </c>
+      <c r="G147">
+        <v>276.0948016229012</v>
+      </c>
+      <c r="H147">
+        <v>98.64027926621159</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>50146</v>
+      </c>
+      <c r="C148">
+        <v>41996.73442602723</v>
+      </c>
+      <c r="D148">
+        <v>0.01351257250356822</v>
+      </c>
+      <c r="E148">
+        <v>0.3361303651900265</v>
+      </c>
+      <c r="F148">
+        <v>85.34906809155045</v>
+      </c>
+      <c r="G148">
+        <v>276.2176963348937</v>
+      </c>
+      <c r="H148">
+        <v>101.42721740872</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>50147</v>
+      </c>
+      <c r="C149">
+        <v>41996.61182002228</v>
+      </c>
+      <c r="D149">
+        <v>0.01355109642961448</v>
+      </c>
+      <c r="E149">
+        <v>0.3365551050562013</v>
+      </c>
+      <c r="F149">
+        <v>85.55649262247238</v>
+      </c>
+      <c r="G149">
+        <v>276.4093552564677</v>
+      </c>
+      <c r="H149">
+        <v>104.195473963808</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>50148</v>
+      </c>
+      <c r="C150">
+        <v>41996.50638968575</v>
+      </c>
+      <c r="D150">
+        <v>0.01359036492084302</v>
+      </c>
+      <c r="E150">
+        <v>0.3367178567640675</v>
+      </c>
+      <c r="F150">
+        <v>85.68057809268745</v>
+      </c>
+      <c r="G150">
+        <v>276.7062067909096</v>
+      </c>
+      <c r="H150">
+        <v>106.9395959582863</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>50149</v>
+      </c>
+      <c r="C151">
+        <v>41996.4553203503</v>
+      </c>
+      <c r="D151">
+        <v>0.01362833353539029</v>
+      </c>
+      <c r="E151">
+        <v>0.3368246777596832</v>
+      </c>
+      <c r="F151">
+        <v>85.70131930076087</v>
+      </c>
+      <c r="G151">
+        <v>277.130588773129</v>
+      </c>
+      <c r="H151">
+        <v>109.6574097332181</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>50150</v>
+      </c>
+      <c r="C152">
+        <v>41996.49335212142</v>
+      </c>
+      <c r="D152">
+        <v>0.0136628492870495</v>
+      </c>
+      <c r="E152">
+        <v>0.3371245070911499</v>
+      </c>
+      <c r="F152">
+        <v>85.61632157805845</v>
+      </c>
+      <c r="G152">
+        <v>277.6832352726029</v>
+      </c>
+      <c r="H152">
+        <v>112.350816658703</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>50151</v>
+      </c>
+      <c r="C153">
+        <v>41996.64595747756</v>
+      </c>
+      <c r="D153">
+        <v>0.01369207883259998</v>
+      </c>
+      <c r="E153">
+        <v>0.3378610166551464</v>
+      </c>
+      <c r="F153">
+        <v>85.44499072539517</v>
+      </c>
+      <c r="G153">
+        <v>278.3392556657656</v>
+      </c>
+      <c r="H153">
+        <v>115.0255878923324</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>50152</v>
+      </c>
+      <c r="C154">
+        <v>41996.92390650016</v>
+      </c>
+      <c r="D154">
+        <v>0.01371484180475647</v>
+      </c>
+      <c r="E154">
+        <v>0.3392129199806814</v>
+      </c>
+      <c r="F154">
+        <v>85.22764206567233</v>
+      </c>
+      <c r="G154">
+        <v>279.0501465972824</v>
+      </c>
+      <c r="H154">
+        <v>117.6901924518719</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>50153</v>
+      </c>
+      <c r="C155">
+        <v>41997.32041823296</v>
+      </c>
+      <c r="D155">
+        <v>0.01373073860425225</v>
+      </c>
+      <c r="E155">
+        <v>0.3412389742934983</v>
+      </c>
+      <c r="F155">
+        <v>85.01826164252219</v>
+      </c>
+      <c r="G155">
+        <v>279.7525778205047</v>
+      </c>
+      <c r="H155">
+        <v>120.3541980326424</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>50154</v>
+      </c>
+      <c r="C156">
+        <v>41997.81091181927</v>
+      </c>
+      <c r="D156">
+        <v>0.01374008528574277</v>
+      </c>
+      <c r="E156">
+        <v>0.3438460338697031</v>
+      </c>
+      <c r="F156">
+        <v>84.87203238816089</v>
+      </c>
+      <c r="G156">
+        <v>280.3821438270405</v>
+      </c>
+      <c r="H156">
+        <v>123.0269544575745</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>50155</v>
+      </c>
+      <c r="C157">
+        <v>41998.35477073459</v>
+      </c>
+      <c r="D157">
+        <v>0.01374378309239854</v>
+      </c>
+      <c r="E157">
+        <v>0.3467936232542199</v>
+      </c>
+      <c r="F157">
+        <v>84.83094805186093</v>
+      </c>
+      <c r="G157">
+        <v>280.8883842417816</v>
+      </c>
+      <c r="H157">
+        <v>125.7169443803102</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>50156</v>
+      </c>
+      <c r="C158">
+        <v>41998.89894879641</v>
+      </c>
+      <c r="D158">
+        <v>0.01374326815943137</v>
+      </c>
+      <c r="E158">
+        <v>0.3497392157554981</v>
+      </c>
+      <c r="F158">
+        <v>84.91169835652592</v>
+      </c>
+      <c r="G158">
+        <v>281.2471426905402</v>
+      </c>
+      <c r="H158">
+        <v>128.4315523647227</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>50157</v>
+      </c>
+      <c r="C159">
+        <v>41999.38414829871</v>
+      </c>
+      <c r="D159">
+        <v>0.01374057409760768</v>
+      </c>
+      <c r="E159">
+        <v>0.3523182208248445</v>
+      </c>
+      <c r="F159">
+        <v>85.09941535200082</v>
+      </c>
+      <c r="G159">
+        <v>281.4674293098539</v>
+      </c>
+      <c r="H159">
+        <v>131.1764962055142</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>50158</v>
+      </c>
+      <c r="C160">
+        <v>41999.75444879422</v>
+      </c>
+      <c r="D160">
+        <v>0.01373834886054809</v>
+      </c>
+      <c r="E160">
+        <v>0.3542423228930405</v>
+      </c>
+      <c r="F160">
+        <v>85.34956634012768</v>
+      </c>
+      <c r="G160">
+        <v>281.5911436647789</v>
+      </c>
+      <c r="H160">
+        <v>133.9542724293391</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>50159</v>
+      </c>
+      <c r="C161">
+        <v>41999.96960905292</v>
+      </c>
+      <c r="D161">
+        <v>0.01373954882738347</v>
+      </c>
+      <c r="E161">
+        <v>0.3553887209289797</v>
+      </c>
+      <c r="F161">
+        <v>85.59864581980075</v>
+      </c>
+      <c r="G161">
+        <v>281.6846760363295</v>
+      </c>
+      <c r="H161">
+        <v>136.7619317802523</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>50160</v>
+      </c>
+      <c r="C162">
+        <v>42000.01624203284</v>
+      </c>
+      <c r="D162">
+        <v>0.01374667688072863</v>
+      </c>
+      <c r="E162">
+        <v>0.3558454957701536</v>
+      </c>
+      <c r="F162">
+        <v>85.78186767610134</v>
+      </c>
+      <c r="G162">
+        <v>281.8225385222173</v>
+      </c>
+      <c r="H162">
+        <v>139.5898092140751</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>50161</v>
+      </c>
+      <c r="C163">
+        <v>41999.91223803136</v>
+      </c>
+      <c r="D163">
+        <v>0.01376084624307644</v>
+      </c>
+      <c r="E163">
+        <v>0.355886302743721</v>
+      </c>
+      <c r="F163">
+        <v>85.85265620775593</v>
+      </c>
+      <c r="G163">
+        <v>282.0663190230152</v>
+      </c>
+      <c r="H163">
+        <v>142.4230923487418</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>50162</v>
+      </c>
+      <c r="C164">
+        <v>41999.70098164618</v>
+      </c>
+      <c r="D164">
+        <v>0.01378127881834689</v>
+      </c>
+      <c r="E164">
+        <v>0.355877532548802</v>
+      </c>
+      <c r="F164">
+        <v>85.79629646657638</v>
+      </c>
+      <c r="G164">
+        <v>282.4464748869945</v>
+      </c>
+      <c r="H164">
+        <v>145.2463417107195</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>50163</v>
+      </c>
+      <c r="C165">
+        <v>41999.43750812198</v>
+      </c>
+      <c r="D165">
+        <v>0.01380564956843492</v>
+      </c>
+      <c r="E165">
+        <v>0.356158162813686</v>
+      </c>
+      <c r="F165">
+        <v>85.63172983778544</v>
+      </c>
+      <c r="G165">
+        <v>282.955400273084</v>
+      </c>
+      <c r="H165">
+        <v>148.0485591767348</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>50164</v>
+      </c>
+      <c r="C166">
+        <v>41999.17331299693</v>
+      </c>
+      <c r="D166">
+        <v>0.01383107106272481</v>
+      </c>
+      <c r="E166">
+        <v>0.3569465873247208</v>
+      </c>
+      <c r="F166">
+        <v>85.40151013026346</v>
+      </c>
+      <c r="G166">
+        <v>283.5547647440997</v>
+      </c>
+      <c r="H166">
+        <v>150.8258243878033</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>50165</v>
+      </c>
+      <c r="C167">
+        <v>41998.94627413982</v>
+      </c>
+      <c r="D167">
+        <v>0.01385509624512122</v>
+      </c>
+      <c r="E167">
+        <v>0.3583068409755888</v>
+      </c>
+      <c r="F167">
+        <v>85.15604795748585</v>
+      </c>
+      <c r="G167">
+        <v>284.1920079839571</v>
+      </c>
+      <c r="H167">
+        <v>153.5805129980854</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>50166</v>
+      </c>
+      <c r="C168">
+        <v>41998.77799829392</v>
+      </c>
+      <c r="D168">
+        <v>0.01387625511170294</v>
+      </c>
+      <c r="E168">
+        <v>0.3601695268502236</v>
+      </c>
+      <c r="F168">
+        <v>84.93969753291836</v>
+      </c>
+      <c r="G168">
+        <v>284.8171053474208</v>
+      </c>
+      <c r="H168">
+        <v>156.3184349256588</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>50167</v>
+      </c>
+      <c r="C169">
+        <v>41998.67678150034</v>
+      </c>
+      <c r="D169">
+        <v>0.01389405913404895</v>
+      </c>
+      <c r="E169">
+        <v>0.3623800763203516</v>
+      </c>
+      <c r="F169">
+        <v>84.78291428887306</v>
+      </c>
+      <c r="G169">
+        <v>285.3933800858818</v>
+      </c>
+      <c r="H169">
+        <v>159.0458793688525</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>50168</v>
+      </c>
+      <c r="C170">
+        <v>41998.64280692767</v>
+      </c>
+      <c r="D170">
+        <v>0.0139086890184603</v>
+      </c>
+      <c r="E170">
+        <v>0.364747725318959</v>
+      </c>
+      <c r="F170">
+        <v>84.7003948796464</v>
+      </c>
+      <c r="G170">
+        <v>285.9012587645108</v>
+      </c>
+      <c r="H170">
+        <v>161.7677448743639</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>50169</v>
+      </c>
+      <c r="C171">
+        <v>41998.67287410572</v>
+      </c>
+      <c r="D171">
+        <v>0.01392061140687958</v>
+      </c>
+      <c r="E171">
+        <v>0.3670816838430219</v>
+      </c>
+      <c r="F171">
+        <v>84.69281200523439</v>
+      </c>
+      <c r="G171">
+        <v>286.33718609634</v>
+      </c>
+      <c r="H171">
+        <v>164.4869157518471</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>50170</v>
+      </c>
+      <c r="C172">
+        <v>41998.76325899618</v>
+      </c>
+      <c r="D172">
+        <v>0.01393027175246106</v>
+      </c>
+      <c r="E172">
+        <v>0.3692132573161644</v>
+      </c>
+      <c r="F172">
+        <v>84.74972402943777</v>
+      </c>
+      <c r="G172">
+        <v>286.7104553614035</v>
+      </c>
+      <c r="H172">
+        <v>167.2045448726232</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>50171</v>
+      </c>
+      <c r="C173">
+        <v>41998.90724487096</v>
+      </c>
+      <c r="D173">
+        <v>0.0139379289428833</v>
+      </c>
+      <c r="E173">
+        <v>0.3710087513281858</v>
+      </c>
+      <c r="F173">
+        <v>84.85245032402879</v>
+      </c>
+      <c r="G173">
+        <v>287.0382661191346</v>
+      </c>
+      <c r="H173">
+        <v>169.9221762446866</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>50172</v>
+      </c>
+      <c r="C174">
+        <v>41999.10460556379</v>
+      </c>
+      <c r="D174">
+        <v>0.01394355353144483</v>
+      </c>
+      <c r="E174">
+        <v>0.3723796951722315</v>
+      </c>
+      <c r="F174">
+        <v>84.97566981580357</v>
+      </c>
+      <c r="G174">
+        <v>287.3473280945467</v>
+      </c>
+      <c r="H174">
+        <v>172.6384462731133</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>50173</v>
+      </c>
+      <c r="C175">
+        <v>41999.3464708167</v>
+      </c>
+      <c r="D175">
+        <v>0.01394696870093671</v>
+      </c>
+      <c r="E175">
+        <v>0.3732935857757271</v>
+      </c>
+      <c r="F175">
+        <v>85.08990450698046</v>
+      </c>
+      <c r="G175">
+        <v>287.66652502797</v>
+      </c>
+      <c r="H175">
+        <v>175.3540569504786</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>50174</v>
+      </c>
+      <c r="C176">
+        <v>41999.61450354679</v>
+      </c>
+      <c r="D176">
+        <v>0.01394803508923909</v>
+      </c>
+      <c r="E176">
+        <v>0.3737864864737655</v>
+      </c>
+      <c r="F176">
+        <v>85.16405791739145</v>
+      </c>
+      <c r="G176">
+        <v>288.0249530669277</v>
+      </c>
+      <c r="H176">
+        <v>178.071174977163</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>50175</v>
+      </c>
+      <c r="C177">
+        <v>41999.87666010647</v>
+      </c>
+      <c r="D177">
+        <v>0.01394694138831047</v>
+      </c>
+      <c r="E177">
+        <v>0.3739736418714079</v>
+      </c>
+      <c r="F177">
+        <v>85.16951319950837</v>
+      </c>
+      <c r="G177">
+        <v>288.4479059544043</v>
+      </c>
+      <c r="H177">
+        <v>180.7933411317684</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>50176</v>
+      </c>
+      <c r="C178">
+        <v>42000.08574891499</v>
+      </c>
+      <c r="D178">
+        <v>0.01394447704407889</v>
+      </c>
+      <c r="E178">
+        <v>0.374050102900099</v>
+      </c>
+      <c r="F178">
+        <v>85.08595868898918</v>
+      </c>
+      <c r="G178">
+        <v>288.9519174600377</v>
+      </c>
+      <c r="H178">
+        <v>183.5245793642146</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>50177</v>
+      </c>
+      <c r="C179">
+        <v>42000.18287016627</v>
+      </c>
+      <c r="D179">
+        <v>0.01394212597646506</v>
+      </c>
+      <c r="E179">
+        <v>0.3742717900549997</v>
+      </c>
+      <c r="F179">
+        <v>84.90789019964473</v>
+      </c>
+      <c r="G179">
+        <v>289.5407636003298</v>
+      </c>
+      <c r="H179">
+        <v>186.2668289612965</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>50178</v>
+      </c>
+      <c r="C180">
+        <v>42000.11301965261</v>
+      </c>
+      <c r="D180">
+        <v>0.0139417219784491</v>
+      </c>
+      <c r="E180">
+        <v>0.3749092336071199</v>
+      </c>
+      <c r="F180">
+        <v>84.64996729168551</v>
+      </c>
+      <c r="G180">
+        <v>290.2009258274161</v>
+      </c>
+      <c r="H180">
+        <v>189.0191063827427</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>50179</v>
+      </c>
+      <c r="C181">
+        <v>41999.84822941593</v>
+      </c>
+      <c r="D181">
+        <v>0.0139447133983027</v>
+      </c>
+      <c r="E181">
+        <v>0.3761793659672526</v>
+      </c>
+      <c r="F181">
+        <v>84.34771724429721</v>
+      </c>
+      <c r="G181">
+        <v>290.9007256687076</v>
+      </c>
+      <c r="H181">
+        <v>191.7776574269739</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>50180</v>
+      </c>
+      <c r="C182">
+        <v>41999.39712271539</v>
+      </c>
+      <c r="D182">
+        <v>0.01395146319984906</v>
+      </c>
+      <c r="E182">
+        <v>0.3781782795953271</v>
+      </c>
+      <c r="F182">
+        <v>84.05053798898997</v>
+      </c>
+      <c r="G182">
+        <v>291.598887596007</v>
+      </c>
+      <c r="H182">
+        <v>194.5343110595523</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>50181</v>
+      </c>
+      <c r="C183">
+        <v>41998.81007727173</v>
+      </c>
+      <c r="D183">
+        <v>0.01396078311726171</v>
+      </c>
+      <c r="E183">
+        <v>0.3808377101227761</v>
+      </c>
+      <c r="F183">
+        <v>83.80943578214044</v>
+      </c>
+      <c r="G183">
+        <v>292.2527374308926</v>
+      </c>
+      <c r="H183">
+        <v>197.2806020484482</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>50182</v>
+      </c>
+      <c r="C184">
+        <v>41998.16662522381</v>
+      </c>
+      <c r="D184">
+        <v>0.01397013415071329</v>
+      </c>
+      <c r="E184">
+        <v>0.3839293419474539</v>
+      </c>
+      <c r="F184">
+        <v>83.66265738764478</v>
+      </c>
+      <c r="G184">
+        <v>292.8291419223667</v>
+      </c>
+      <c r="H184">
+        <v>200.0112479608447</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>50183</v>
+      </c>
+      <c r="C185">
+        <v>41997.55382346798</v>
+      </c>
+      <c r="D185">
+        <v>0.01397637355063632</v>
+      </c>
+      <c r="E185">
+        <v>0.3871185179660026</v>
+      </c>
+      <c r="F185">
+        <v>83.62471889806982</v>
+      </c>
+      <c r="G185">
+        <v>293.3133746741717</v>
+      </c>
+      <c r="H185">
+        <v>202.7263019849736</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>50184</v>
+      </c>
+      <c r="C186">
+        <v>41997.04562908351</v>
+      </c>
+      <c r="D186">
+        <v>0.01397670372401721</v>
+      </c>
+      <c r="E186">
+        <v>0.3900503364543547</v>
+      </c>
+      <c r="F186">
+        <v>83.68227656153225</v>
+      </c>
+      <c r="G186">
+        <v>293.7137367065737</v>
+      </c>
+      <c r="H186">
+        <v>205.4306856990503</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>50185</v>
+      </c>
+      <c r="C187">
+        <v>41996.68983160688</v>
+      </c>
+      <c r="D187">
+        <v>0.01396955312543126</v>
+      </c>
+      <c r="E187">
+        <v>0.3924347989409872</v>
+      </c>
+      <c r="F187">
+        <v>83.79936286192947</v>
+      </c>
+      <c r="G187">
+        <v>294.0523806606575</v>
+      </c>
+      <c r="H187">
+        <v>208.1383219031369</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>50186</v>
+      </c>
+      <c r="C188">
+        <v>41996.50320441047</v>
+      </c>
+      <c r="D188">
+        <v>0.01395494447912138</v>
+      </c>
+      <c r="E188">
+        <v>0.3941259319724561</v>
+      </c>
+      <c r="F188">
+        <v>83.92456072590427</v>
+      </c>
+      <c r="G188">
+        <v>294.3690283559516</v>
+      </c>
+      <c r="H188">
+        <v>210.8610369060619</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>50187</v>
+      </c>
+      <c r="C189">
+        <v>41996.47296556434</v>
+      </c>
+      <c r="D189">
+        <v>0.01393450382449273</v>
+      </c>
+      <c r="E189">
+        <v>0.3951547095400619</v>
+      </c>
+      <c r="F189">
+        <v>84.00461021835967</v>
+      </c>
+      <c r="G189">
+        <v>294.7076066853922</v>
+      </c>
+      <c r="H189">
+        <v>213.6084024506493</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>50188</v>
+      </c>
+      <c r="C190">
+        <v>41996.56248254627</v>
+      </c>
+      <c r="D190">
+        <v>0.01391096428121391</v>
+      </c>
+      <c r="E190">
+        <v>0.395718953846351</v>
+      </c>
+      <c r="F190">
+        <v>83.99769788740379</v>
+      </c>
+      <c r="G190">
+        <v>295.1057148549288</v>
+      </c>
+      <c r="H190">
+        <v>216.3849441100948</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>50189</v>
+      </c>
+      <c r="C191">
+        <v>41996.72023958917</v>
+      </c>
+      <c r="D191">
+        <v>0.01388734680591665</v>
+      </c>
+      <c r="E191">
+        <v>0.3961272443327222</v>
+      </c>
+      <c r="F191">
+        <v>83.88412019455976</v>
+      </c>
+      <c r="G191">
+        <v>295.5850227175095</v>
+      </c>
+      <c r="H191">
+        <v>219.1890172563316</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>50190</v>
+      </c>
+      <c r="C192">
+        <v>41996.89092793183</v>
+      </c>
+      <c r="D192">
+        <v>0.01386612406080915</v>
+      </c>
+      <c r="E192">
+        <v>0.3967110138754855</v>
+      </c>
+      <c r="F192">
+        <v>83.67093540505699</v>
+      </c>
+      <c r="G192">
+        <v>296.1455062273062</v>
+      </c>
+      <c r="H192">
+        <v>222.0138463485171</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>50191</v>
+      </c>
+      <c r="C193">
+        <v>41997.02635136789</v>
+      </c>
+      <c r="D193">
+        <v>0.01384870415625639</v>
+      </c>
+      <c r="E193">
+        <v>0.3977335953080102</v>
+      </c>
+      <c r="F193">
+        <v>83.38859171834957</v>
+      </c>
+      <c r="G193">
+        <v>296.7660847291696</v>
+      </c>
+      <c r="H193">
+        <v>224.8502003950613</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>50192</v>
+      </c>
+      <c r="C194">
+        <v>41997.09316084775</v>
+      </c>
+      <c r="D194">
+        <v>0.01383539807762527</v>
+      </c>
+      <c r="E194">
+        <v>0.3993284912427343</v>
+      </c>
+      <c r="F194">
+        <v>83.08071388916424</v>
+      </c>
+      <c r="G194">
+        <v>297.4118708347516</v>
+      </c>
+      <c r="H194">
+        <v>227.6893322946007</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>50193</v>
+      </c>
+      <c r="C195">
+        <v>41997.07543416017</v>
+      </c>
+      <c r="D195">
+        <v>0.01382576548390615</v>
+      </c>
+      <c r="E195">
+        <v>0.4014851806050684</v>
+      </c>
+      <c r="F195">
+        <v>82.79137532989449</v>
+      </c>
+      <c r="G195">
+        <v>298.0450424153345</v>
+      </c>
+      <c r="H195">
+        <v>230.5248493676266</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>50194</v>
+      </c>
+      <c r="C196">
+        <v>41996.97233805701</v>
+      </c>
+      <c r="D196">
+        <v>0.01381907228761659</v>
+      </c>
+      <c r="E196">
+        <v>0.4040775872784304</v>
+      </c>
+      <c r="F196">
+        <v>82.55482194233255</v>
+      </c>
+      <c r="G196">
+        <v>298.6348370364013</v>
+      </c>
+      <c r="H196">
+        <v>233.3530351395571</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>50195</v>
+      </c>
+      <c r="C197">
+        <v>41996.79296329375</v>
+      </c>
+      <c r="D197">
+        <v>0.01381462817449883</v>
+      </c>
+      <c r="E197">
+        <v>0.4069140519856787</v>
+      </c>
+      <c r="F197">
+        <v>82.39040065970643</v>
+      </c>
+      <c r="G197">
+        <v>299.1634737747362</v>
+      </c>
+      <c r="H197">
+        <v>236.1720446191708</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>50196</v>
+      </c>
+      <c r="C198">
+        <v>41996.5508383081</v>
+      </c>
+      <c r="D198">
+        <v>0.01381191581388628</v>
+      </c>
+      <c r="E198">
+        <v>0.4097866271509584</v>
+      </c>
+      <c r="F198">
+        <v>82.30241189528849</v>
+      </c>
+      <c r="G198">
+        <v>299.627496785144</v>
+      </c>
+      <c r="H198">
+        <v>238.9807447345468</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>50197</v>
+      </c>
+      <c r="C199">
+        <v>41996.25983108739</v>
+      </c>
+      <c r="D199">
+        <v>0.01381054467187958</v>
+      </c>
+      <c r="E199">
+        <v>0.4125071433329252</v>
+      </c>
+      <c r="F199">
+        <v>82.2828375690292</v>
+      </c>
+      <c r="G199">
+        <v>300.035990528205</v>
+      </c>
+      <c r="H199">
+        <v>241.7777932022163</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>50198</v>
+      </c>
+      <c r="C200">
+        <v>41995.93204714759</v>
+      </c>
+      <c r="D200">
+        <v>0.01381010633457844</v>
+      </c>
+      <c r="E200">
+        <v>0.4149283290226228</v>
+      </c>
+      <c r="F200">
+        <v>82.31483893907459</v>
+      </c>
+      <c r="G200">
+        <v>300.4075207862178</v>
+      </c>
+      <c r="H200">
+        <v>244.5612098103854</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>50199</v>
+      </c>
+      <c r="C201">
+        <v>41995.577592907</v>
+      </c>
+      <c r="D201">
+        <v>0.01380999792068579</v>
+      </c>
+      <c r="E201">
+        <v>0.4169546417368306</v>
+      </c>
+      <c r="F201">
+        <v>82.37579483572725</v>
+      </c>
+      <c r="G201">
+        <v>300.7670085497692</v>
+      </c>
+      <c r="H201">
+        <v>247.3284679700283</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>50200</v>
+      </c>
+      <c r="C202">
+        <v>41995.20582423511</v>
+      </c>
+      <c r="D202">
+        <v>0.01380925917021606</v>
+      </c>
+      <c r="E202">
+        <v>0.4185488961072399</v>
+      </c>
+      <c r="F202">
+        <v>82.43962285265857</v>
+      </c>
+      <c r="G202">
+        <v>301.142835296158</v>
+      </c>
+      <c r="H202">
+        <v>250.0770709571666</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>50201</v>
+      </c>
+      <c r="C203">
+        <v>41994.82772120756</v>
+      </c>
+      <c r="D203">
+        <v>0.01380646496173717</v>
+      </c>
+      <c r="E203">
+        <v>0.41973896977689</v>
+      </c>
+      <c r="F203">
+        <v>82.47881904682983</v>
+      </c>
+      <c r="G203">
+        <v>301.563769135387</v>
+      </c>
+      <c r="H203">
+        <v>252.8055918278731</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>50202</v>
+      </c>
+      <c r="C204">
+        <v>41994.459017311</v>
+      </c>
+      <c r="D204">
+        <v>0.01379973401510319</v>
+      </c>
+      <c r="E204">
+        <v>0.4206252219482166</v>
+      </c>
+      <c r="F204">
+        <v>82.46701935985247</v>
+      </c>
+      <c r="G204">
+        <v>302.0549582019618</v>
+      </c>
+      <c r="H204">
+        <v>255.5151292408212</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>50203</v>
+      </c>
+      <c r="C205">
+        <v>41994.12340226529</v>
+      </c>
+      <c r="D205">
+        <v>0.01378694161804773</v>
+      </c>
+      <c r="E205">
+        <v>0.4213843565934622</v>
+      </c>
+      <c r="F205">
+        <v>82.38289909475291</v>
+      </c>
+      <c r="G205">
+        <v>302.6323990128679</v>
+      </c>
+      <c r="H205">
+        <v>258.2109540058862</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>50204</v>
+      </c>
+      <c r="C206">
+        <v>41993.85438465024</v>
+      </c>
+      <c r="D206">
+        <v>0.0137662203259656</v>
+      </c>
+      <c r="E206">
+        <v>0.4222602209295618</v>
+      </c>
+      <c r="F206">
+        <v>82.21569216547574</v>
+      </c>
+      <c r="G206">
+        <v>303.2961995412124</v>
+      </c>
+      <c r="H206">
+        <v>260.9037396909941</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>50205</v>
+      </c>
+      <c r="C207">
+        <v>41993.69346912649</v>
+      </c>
+      <c r="D207">
+        <v>0.01373673721574367</v>
+      </c>
+      <c r="E207">
+        <v>0.4235295395530707</v>
+      </c>
+      <c r="F207">
+        <v>81.97128576958913</v>
+      </c>
+      <c r="G207">
+        <v>304.0247431938748</v>
+      </c>
+      <c r="H207">
+        <v>263.6093057432791</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>50206</v>
+      </c>
+      <c r="C208">
+        <v>41993.68206309914</v>
+      </c>
+      <c r="D208">
+        <v>0.01369951237355017</v>
+      </c>
+      <c r="E208">
+        <v>0.4254365654806674</v>
+      </c>
+      <c r="F208">
+        <v>81.67597648639364</v>
+      </c>
+      <c r="G208">
+        <v>304.7738288590265</v>
+      </c>
+      <c r="H208">
+        <v>266.34570022893</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>50207</v>
+      </c>
+      <c r="C209">
+        <v>41993.84644971474</v>
+      </c>
+      <c r="D209">
+        <v>0.01365777992545047</v>
+      </c>
+      <c r="E209">
+        <v>0.4281089147045399</v>
+      </c>
+      <c r="F209">
+        <v>81.37396501846828</v>
+      </c>
+      <c r="G209">
+        <v>305.4849376006991</v>
+      </c>
+      <c r="H209">
+        <v>269.1273877203355</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>50208</v>
+      </c>
+      <c r="C210">
+        <v>41994.17998413811</v>
+      </c>
+      <c r="D210">
+        <v>0.01361636704033167</v>
+      </c>
+      <c r="E210">
+        <v>0.4314898977502943</v>
+      </c>
+      <c r="F210">
+        <v>81.11658049204694</v>
+      </c>
+      <c r="G210">
+        <v>306.1027255469717</v>
+      </c>
+      <c r="H210">
+        <v>271.9584593981242</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>50209</v>
+      </c>
+      <c r="C211">
+        <v>41994.6320892751</v>
+      </c>
+      <c r="D211">
+        <v>0.01358004381353207</v>
+      </c>
+      <c r="E211">
+        <v>0.4353292513462149</v>
+      </c>
+      <c r="F211">
+        <v>80.94619552133167</v>
+      </c>
+      <c r="G211">
+        <v>306.5948755836454</v>
+      </c>
+      <c r="H211">
+        <v>274.8287966883621</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>50210</v>
+      </c>
+      <c r="C212">
+        <v>41995.11406066211</v>
+      </c>
+      <c r="D212">
+        <v>0.01355159081273519</v>
+      </c>
+      <c r="E212">
+        <v>0.4392487910682231</v>
+      </c>
+      <c r="F212">
+        <v>80.88211142419235</v>
+      </c>
+      <c r="G212">
+        <v>306.9637075899496</v>
+      </c>
+      <c r="H212">
+        <v>277.7165427653202</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>50211</v>
+      </c>
+      <c r="C213">
+        <v>41995.52341101452</v>
+      </c>
+      <c r="D213">
+        <v>0.01353072042671197</v>
+      </c>
+      <c r="E213">
+        <v>0.4428569655771354</v>
+      </c>
+      <c r="F213">
+        <v>80.91502074735696</v>
+      </c>
+      <c r="G213">
+        <v>307.2434930702846</v>
+      </c>
+      <c r="H213">
+        <v>280.5963512884715</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>50212</v>
+      </c>
+      <c r="C214">
+        <v>41995.77623370822</v>
+      </c>
+      <c r="D214">
+        <v>0.01351446404644891</v>
+      </c>
+      <c r="E214">
+        <v>0.4458616578913022</v>
+      </c>
+      <c r="F214">
+        <v>81.01149859701893</v>
+      </c>
+      <c r="G214">
+        <v>307.486664185938</v>
+      </c>
+      <c r="H214">
+        <v>283.4487657849738</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>50213</v>
+      </c>
+      <c r="C215">
+        <v>41995.83157941087</v>
+      </c>
+      <c r="D215">
+        <v>0.01349863502235349</v>
+      </c>
+      <c r="E215">
+        <v>0.4481401561329143</v>
+      </c>
+      <c r="F215">
+        <v>81.12508718846161</v>
+      </c>
+      <c r="G215">
+        <v>307.7473599165855</v>
+      </c>
+      <c r="H215">
+        <v>286.2656903373688</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>50214</v>
+      </c>
+      <c r="C216">
+        <v>41995.69798166722</v>
+      </c>
+      <c r="D216">
+        <v>0.01347941848326158</v>
+      </c>
+      <c r="E216">
+        <v>0.4497529150709935</v>
+      </c>
+      <c r="F216">
+        <v>81.20910561504672</v>
+      </c>
+      <c r="G216">
+        <v>308.0688183397631</v>
+      </c>
+      <c r="H216">
+        <v>289.0502699570403</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>50215</v>
+      </c>
+      <c r="C217">
+        <v>41995.42345610099</v>
+      </c>
+      <c r="D217">
+        <v>0.01345436268670592</v>
+      </c>
+      <c r="E217">
+        <v>0.4509100622075585</v>
+      </c>
+      <c r="F217">
+        <v>81.22755597354499</v>
+      </c>
+      <c r="G217">
+        <v>308.4763678365952</v>
+      </c>
+      <c r="H217">
+        <v>291.813030225476</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>50216</v>
+      </c>
+      <c r="C218">
+        <v>41995.07712521536</v>
+      </c>
+      <c r="D218">
+        <v>0.01342261854108864</v>
+      </c>
+      <c r="E218">
+        <v>0.451908391161261</v>
+      </c>
+      <c r="F218">
+        <v>81.16221729159626</v>
+      </c>
+      <c r="G218">
+        <v>308.9750043170849</v>
+      </c>
+      <c r="H218">
+        <v>294.5671946821882</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>50217</v>
+      </c>
+      <c r="C219">
+        <v>41994.7305507919</v>
+      </c>
+      <c r="D219">
+        <v>0.01338466920400586</v>
+      </c>
+      <c r="E219">
+        <v>0.453056979077371</v>
+      </c>
+      <c r="F219">
+        <v>81.01513356353531</v>
+      </c>
+      <c r="G219">
+        <v>309.5504467238733</v>
+      </c>
+      <c r="H219">
+        <v>297.3250955159935</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>50218</v>
+      </c>
+      <c r="C220">
+        <v>41994.44348669574</v>
+      </c>
+      <c r="D220">
+        <v>0.01334186755816388</v>
+      </c>
+      <c r="E220">
+        <v>0.4546079941317434</v>
+      </c>
+      <c r="F220">
+        <v>80.80640910078422</v>
+      </c>
+      <c r="G220">
+        <v>310.1732689248639</v>
+      </c>
+      <c r="H220">
+        <v>300.0961859251003</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>50219</v>
+      </c>
+      <c r="C221">
+        <v>41994.25574896522</v>
+      </c>
+      <c r="D221">
+        <v>0.01329599463482952</v>
+      </c>
+      <c r="E221">
+        <v>0.456707212683777</v>
+      </c>
+      <c r="F221">
+        <v>80.5680560636898</v>
+      </c>
+      <c r="G221">
+        <v>310.8056951592818</v>
+      </c>
+      <c r="H221">
+        <v>302.8863398184087</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>50220</v>
+      </c>
+      <c r="C222">
+        <v>41994.18515147753</v>
+      </c>
+      <c r="D222">
+        <v>0.01324892500344375</v>
+      </c>
+      <c r="E222">
+        <v>0.4593741764262097</v>
+      </c>
+      <c r="F222">
+        <v>80.33565986760449</v>
+      </c>
+      <c r="G222">
+        <v>311.4098158390859</v>
+      </c>
+      <c r="H222">
+        <v>305.6979292768808</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>50221</v>
+      </c>
+      <c r="C223">
+        <v>41994.23037295458</v>
+      </c>
+      <c r="D223">
+        <v>0.01320240491342676</v>
+      </c>
+      <c r="E223">
+        <v>0.462513640675174</v>
+      </c>
+      <c r="F223">
+        <v>80.14029606641037</v>
+      </c>
+      <c r="G223">
+        <v>311.9551933888721</v>
+      </c>
+      <c r="H223">
+        <v>308.5302834193008</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>50222</v>
+      </c>
+      <c r="C224">
+        <v>41994.37682665598</v>
+      </c>
+      <c r="D224">
+        <v>0.01315791784433222</v>
+      </c>
+      <c r="E224">
+        <v>0.4659505386819445</v>
+      </c>
+      <c r="F224">
+        <v>80.00285846465107</v>
+      </c>
+      <c r="G224">
+        <v>312.4239299686251</v>
+      </c>
+      <c r="H224">
+        <v>311.3802971932814</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>50223</v>
+      </c>
+      <c r="C225">
+        <v>41994.60329836142</v>
+      </c>
+      <c r="D225">
+        <v>0.01311660983898358</v>
+      </c>
+      <c r="E225">
+        <v>0.4694747995519628</v>
+      </c>
+      <c r="F225">
+        <v>79.93178486007767</v>
+      </c>
+      <c r="G225">
+        <v>312.8123247899338</v>
+      </c>
+      <c r="H225">
+        <v>314.2430699418155</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>50224</v>
+      </c>
+      <c r="C226">
+        <v>41994.887505863</v>
+      </c>
+      <c r="D226">
+        <v>0.0130792541095977</v>
+      </c>
+      <c r="E226">
+        <v>0.4728827547621213</v>
+      </c>
+      <c r="F226">
+        <v>79.9237970226397</v>
+      </c>
+      <c r="G226">
+        <v>313.1295646866269</v>
+      </c>
+      <c r="H226">
+        <v>317.1125042232505</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>50225</v>
+      </c>
+      <c r="C227">
+        <v>41995.20960129782</v>
+      </c>
+      <c r="D227">
+        <v>0.01304623922522436</v>
+      </c>
+      <c r="E227">
+        <v>0.4760072142176748</v>
+      </c>
+      <c r="F227">
+        <v>79.96644273663631</v>
+      </c>
+      <c r="G227">
+        <v>313.3946994717386</v>
+      </c>
+      <c r="H227">
+        <v>319.9818169636769</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>50226</v>
+      </c>
+      <c r="C228">
+        <v>41995.55351548889</v>
+      </c>
+      <c r="D228">
+        <v>0.01301756511685417</v>
+      </c>
+      <c r="E228">
+        <v>0.4787348220173641</v>
+      </c>
+      <c r="F228">
+        <v>80.04117000329281</v>
+      </c>
+      <c r="G228">
+        <v>313.6331895040121</v>
+      </c>
+      <c r="H228">
+        <v>322.8439402863564</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>50227</v>
+      </c>
+      <c r="C229">
+        <v>41995.90657816687</v>
+      </c>
+      <c r="D229">
+        <v>0.01299282965011475</v>
+      </c>
+      <c r="E229">
+        <v>0.4810138630163635</v>
+      </c>
+      <c r="F229">
+        <v>80.12612275222425</v>
+      </c>
+      <c r="G229">
+        <v>313.8738138338784</v>
+      </c>
+      <c r="H229">
+        <v>325.6918330701906</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>50228</v>
+      </c>
+      <c r="C230">
+        <v>41996.2579893846</v>
+      </c>
+      <c r="D230">
+        <v>0.01297119085595313</v>
+      </c>
+      <c r="E230">
+        <v>0.482857205595665</v>
+      </c>
+      <c r="F230">
+        <v>80.19844254831483</v>
+      </c>
+      <c r="G230">
+        <v>314.14607691878</v>
+      </c>
+      <c r="H230">
+        <v>328.5187820756206</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>50229</v>
+      </c>
+      <c r="C231">
+        <v>41996.59663479834</v>
+      </c>
+      <c r="D231">
+        <v>0.01295130045217649</v>
+      </c>
+      <c r="E231">
+        <v>0.484343977901265</v>
+      </c>
+      <c r="F231">
+        <v>80.23634428071287</v>
+      </c>
+      <c r="G231">
+        <v>314.4777111332037</v>
+      </c>
+      <c r="H231">
+        <v>331.318829272742</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>50230</v>
+      </c>
+      <c r="C232">
+        <v>41996.90866422842</v>
+      </c>
+      <c r="D232">
+        <v>0.01293122679623585</v>
+      </c>
+      <c r="E232">
+        <v>0.4856206572612293</v>
+      </c>
+      <c r="F232">
+        <v>80.22150944872566</v>
+      </c>
+      <c r="G232">
+        <v>314.8915593256217</v>
+      </c>
+      <c r="H232">
+        <v>334.0874980023408</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>50231</v>
+      </c>
+      <c r="C233">
+        <v>41997.17539006512</v>
+      </c>
+      <c r="D233">
+        <v>0.01290842253150265</v>
+      </c>
+      <c r="E233">
+        <v>0.4868980240704537</v>
+      </c>
+      <c r="F233">
+        <v>80.14233993111672</v>
+      </c>
+      <c r="G233">
+        <v>315.4011452192493</v>
+      </c>
+      <c r="H233">
+        <v>336.8229650674174</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>50232</v>
+      </c>
+      <c r="C234">
+        <v>41997.37251630221</v>
+      </c>
+      <c r="D234">
+        <v>0.01287983910483469</v>
+      </c>
+      <c r="E234">
+        <v>0.4884356697708261</v>
+      </c>
+      <c r="F234">
+        <v>79.99818134325297</v>
+      </c>
+      <c r="G234">
+        <v>316.0048269338521</v>
+      </c>
+      <c r="H234">
+        <v>339.5276690972972</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>50233</v>
+      </c>
+      <c r="C235">
+        <v>41997.47235306504</v>
+      </c>
+      <c r="D235">
+        <v>0.01284232027640409</v>
+      </c>
+      <c r="E235">
+        <v>0.4905029869034857</v>
+      </c>
+      <c r="F235">
+        <v>79.80355696855048</v>
+      </c>
+      <c r="G235">
+        <v>316.6798597065643</v>
+      </c>
+      <c r="H235">
+        <v>342.20998183963</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>50234</v>
+      </c>
+      <c r="C236">
+        <v>41997.45086448982</v>
+      </c>
+      <c r="D236">
+        <v>0.01279335918576491</v>
+      </c>
+      <c r="E236">
+        <v>0.4933102962688193</v>
+      </c>
+      <c r="F236">
+        <v>79.58988472922374</v>
+      </c>
+      <c r="G236">
+        <v>317.3798069503749</v>
+      </c>
+      <c r="H236">
+        <v>344.8850297423368</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>50235</v>
+      </c>
+      <c r="C237">
+        <v>41997.29988454047</v>
+      </c>
+      <c r="D237">
+        <v>0.01273211113276535</v>
+      </c>
+      <c r="E237">
+        <v>0.496921705252998</v>
+      </c>
+      <c r="F237">
+        <v>79.40119444207359</v>
+      </c>
+      <c r="G237">
+        <v>318.0400946810681</v>
+      </c>
+      <c r="H237">
+        <v>347.5733675038106</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>50236</v>
+      </c>
+      <c r="C238">
+        <v>41997.0406914815</v>
+      </c>
+      <c r="D238">
+        <v>0.01266024658083901</v>
+      </c>
+      <c r="E238">
+        <v>0.5011883953778242</v>
+      </c>
+      <c r="F238">
+        <v>79.28205953836915</v>
+      </c>
+      <c r="G238">
+        <v>318.5944017524535</v>
+      </c>
+      <c r="H238">
+        <v>350.2966302282662</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>50237</v>
+      </c>
+      <c r="C239">
+        <v>41996.73020076267</v>
+      </c>
+      <c r="D239">
+        <v>0.01258204213568471</v>
+      </c>
+      <c r="E239">
+        <v>0.5057542022956755</v>
+      </c>
+      <c r="F239">
+        <v>79.26107641500286</v>
+      </c>
+      <c r="G239">
+        <v>318.9978054404021</v>
+      </c>
+      <c r="H239">
+        <v>353.0709477704041</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>50238</v>
+      </c>
+      <c r="C240">
+        <v>41996.4510283696</v>
+      </c>
+      <c r="D240">
+        <v>0.01250336289283781</v>
+      </c>
+      <c r="E240">
+        <v>0.5101570005945285</v>
+      </c>
+      <c r="F240">
+        <v>79.33832915833486</v>
+      </c>
+      <c r="G240">
+        <v>319.2453854408446</v>
+      </c>
+      <c r="H240">
+        <v>355.9009828115506</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>50239</v>
+      </c>
+      <c r="C241">
+        <v>41996.28581486922</v>
+      </c>
+      <c r="D241">
+        <v>0.0124298692203321</v>
+      </c>
+      <c r="E241">
+        <v>0.5139874483739564</v>
+      </c>
+      <c r="F241">
+        <v>79.48459584861932</v>
+      </c>
+      <c r="G241">
+        <v>319.3751148996001</v>
+      </c>
+      <c r="H241">
+        <v>358.7779550544415</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>50240.00000000001</v>
+      </c>
+      <c r="C242">
+        <v>41996.28865612584</v>
+      </c>
+      <c r="D242">
+        <v>0.01236533217564948</v>
+      </c>
+      <c r="E242">
+        <v>0.5170242145055753</v>
+      </c>
+      <c r="F242">
+        <v>79.65278903917184</v>
+      </c>
+      <c r="G242">
+        <v>319.4532621889649</v>
+      </c>
+      <c r="H242">
+        <v>1.682861316625579</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>50241</v>
+      </c>
+      <c r="C243">
+        <v>41996.46953573387</v>
+      </c>
+      <c r="D243">
+        <v>0.01231082954530317</v>
+      </c>
+      <c r="E243">
+        <v>0.519283157668406</v>
+      </c>
+      <c r="F243">
+        <v>79.7947784191478</v>
+      </c>
+      <c r="G243">
+        <v>319.5510686907777</v>
+      </c>
+      <c r="H243">
+        <v>4.592946184158965</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>50242</v>
+      </c>
+      <c r="C244">
+        <v>41996.79767781854</v>
+      </c>
+      <c r="D244">
+        <v>0.01226496325847497</v>
+      </c>
+      <c r="E244">
+        <v>0.5209757932736847</v>
+      </c>
+      <c r="F244">
+        <v>79.87539502296711</v>
+      </c>
+      <c r="G244">
+        <v>319.7242818627814</v>
+      </c>
+      <c r="H244">
+        <v>7.488074970181906</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>50243</v>
+      </c>
+      <c r="C245">
+        <v>41997.21736276089</v>
+      </c>
+      <c r="D245">
+        <v>0.01222469908302635</v>
+      </c>
+      <c r="E245">
+        <v>0.5224169041866443</v>
+      </c>
+      <c r="F245">
+        <v>79.87929413986873</v>
+      </c>
+      <c r="G245">
+        <v>320.0021977586803</v>
+      </c>
+      <c r="H245">
+        <v>10.3547324959127</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>50244</v>
+      </c>
+      <c r="C246">
+        <v>41997.66563259753</v>
+      </c>
+      <c r="D246">
+        <v>0.01218633091887076</v>
+      </c>
+      <c r="E246">
+        <v>0.5239277870379679</v>
+      </c>
+      <c r="F246">
+        <v>79.81083948433859</v>
+      </c>
+      <c r="G246">
+        <v>320.3864212628969</v>
+      </c>
+      <c r="H246">
+        <v>13.18731268772925</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>50245</v>
+      </c>
+      <c r="C247">
+        <v>41998.08519743245</v>
+      </c>
+      <c r="D247">
+        <v>0.01214627760830584</v>
+      </c>
+      <c r="E247">
+        <v>0.5257638500109953</v>
+      </c>
+      <c r="F247">
+        <v>79.68942961165372</v>
+      </c>
+      <c r="G247">
+        <v>320.8561039833526</v>
+      </c>
+      <c r="H247">
+        <v>15.98752443190991</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>50246</v>
+      </c>
+      <c r="C248">
+        <v>41998.43132910068</v>
+      </c>
+      <c r="D248">
+        <v>0.01210164231669506</v>
+      </c>
+      <c r="E248">
+        <v>0.5280752275285756</v>
+      </c>
+      <c r="F248">
+        <v>79.54286309972453</v>
+      </c>
+      <c r="G248">
+        <v>321.3761354896543</v>
+      </c>
+      <c r="H248">
+        <v>18.762832024904</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>50247</v>
+      </c>
+      <c r="C249">
+        <v>41998.67441471922</v>
+      </c>
+      <c r="D249">
+        <v>0.01205056321312741</v>
+      </c>
+      <c r="E249">
+        <v>0.5308971961792217</v>
+      </c>
+      <c r="F249">
+        <v>79.40065494851268</v>
+      </c>
+      <c r="G249">
+        <v>321.9058282933482</v>
+      </c>
+      <c r="H249">
+        <v>21.52446634945989</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>50248</v>
+      </c>
+      <c r="C250">
+        <v>41998.80004529833</v>
+      </c>
+      <c r="D250">
+        <v>0.01199238176135612</v>
+      </c>
+      <c r="E250">
+        <v>0.5341628928589616</v>
+      </c>
+      <c r="F250">
+        <v>79.28849182937867</v>
+      </c>
+      <c r="G250">
+        <v>322.4066694020043</v>
+      </c>
+      <c r="H250">
+        <v>24.28523918658848</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>50249.00000000001</v>
+      </c>
+      <c r="C251">
+        <v>41998.80763778541</v>
+      </c>
+      <c r="D251">
+        <v>0.0119276274020133</v>
+      </c>
+      <c r="E251">
+        <v>0.5377302884628619</v>
+      </c>
+      <c r="F251">
+        <v>79.22446026944257</v>
+      </c>
+      <c r="G251">
+        <v>322.8483225317795</v>
+      </c>
+      <c r="H251">
+        <v>27.0573384635974</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>50250</v>
+      </c>
+      <c r="C252">
+        <v>41998.7079122517</v>
+      </c>
+      <c r="D252">
+        <v>0.01185781716960016</v>
+      </c>
+      <c r="E252">
+        <v>0.5414159593547877</v>
+      </c>
+      <c r="F252">
+        <v>79.21724526336003</v>
+      </c>
+      <c r="G252">
+        <v>323.2124110227991</v>
+      </c>
+      <c r="H252">
+        <v>29.8503737450973</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>50251</v>
+      </c>
+      <c r="C253">
+        <v>41998.51947143739</v>
+      </c>
+      <c r="D253">
+        <v>0.01178510371260224</v>
+      </c>
+      <c r="E253">
+        <v>0.5450291748591946</v>
+      </c>
+      <c r="F253">
+        <v>79.26612887984112</v>
+      </c>
+      <c r="G253">
+        <v>323.4939193178188</v>
+      </c>
+      <c r="H253">
+        <v>32.67000124599578</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>50252</v>
+      </c>
+      <c r="C254">
+        <v>41998.26502258494</v>
+      </c>
+      <c r="D254">
+        <v>0.01171184974368439</v>
+      </c>
+      <c r="E254">
+        <v>0.548401289564445</v>
+      </c>
+      <c r="F254">
+        <v>79.36234493770185</v>
+      </c>
+      <c r="G254">
+        <v>323.7004093363712</v>
+      </c>
+      <c r="H254">
+        <v>35.51737271921233</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>50253</v>
+      </c>
+      <c r="C255">
+        <v>41997.96801393099</v>
+      </c>
+      <c r="D255">
+        <v>0.01164022805021033</v>
+      </c>
+      <c r="E255">
+        <v>0.5514074505235249</v>
+      </c>
+      <c r="F255">
+        <v>79.49121850527848</v>
+      </c>
+      <c r="G255">
+        <v>323.8495937626923</v>
+      </c>
+      <c r="H255">
+        <v>38.38943553876961</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>50254</v>
+      </c>
+      <c r="C256">
+        <v>41997.65037597628</v>
+      </c>
+      <c r="D256">
+        <v>0.01157192812792363</v>
+      </c>
+      <c r="E256">
+        <v>0.5539798763171505</v>
+      </c>
+      <c r="F256">
+        <v>79.6345570723216</v>
+      </c>
+      <c r="G256">
+        <v>323.9660117983972</v>
+      </c>
+      <c r="H256">
+        <v>41.27987142841538</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>50255</v>
+      </c>
+      <c r="C257">
+        <v>41997.33170104596</v>
+      </c>
+      <c r="D257">
+        <v>0.01150800370462158</v>
+      </c>
+      <c r="E257">
+        <v>0.5561138497433722</v>
+      </c>
+      <c r="F257">
+        <v>79.77293125310207</v>
+      </c>
+      <c r="G257">
+        <v>324.0775242358212</v>
+      </c>
+      <c r="H257">
+        <v>44.18032088604324</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>50256</v>
+      </c>
+      <c r="C258">
+        <v>41997.02976357428</v>
+      </c>
+      <c r="D258">
+        <v>0.01144884504513421</v>
+      </c>
+      <c r="E258">
+        <v>0.5578685235311989</v>
+      </c>
+      <c r="F258">
+        <v>79.88771947934293</v>
+      </c>
+      <c r="G258">
+        <v>324.2120971205631</v>
+      </c>
+      <c r="H258">
+        <v>47.08155231434684</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>50257</v>
+      </c>
+      <c r="C259">
+        <v>41996.7619334394</v>
+      </c>
+      <c r="D259">
+        <v>0.01139422707770632</v>
+      </c>
+      <c r="E259">
+        <v>0.5593643355601862</v>
+      </c>
+      <c r="F259">
+        <v>79.96301795621844</v>
+      </c>
+      <c r="G259">
+        <v>324.3949838024417</v>
+      </c>
+      <c r="H259">
+        <v>49.97436758239375</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>50258</v>
+      </c>
+      <c r="C260">
+        <v>41996.54676549674</v>
+      </c>
+      <c r="D260">
+        <v>0.01134337595983143</v>
+      </c>
+      <c r="E260">
+        <v>0.560777206601905</v>
+      </c>
+      <c r="F260">
+        <v>79.98766268821362</v>
+      </c>
+      <c r="G260">
+        <v>324.6460875879887</v>
+      </c>
+      <c r="H260">
+        <v>52.85021682978016</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>50259</v>
+      </c>
+      <c r="C261">
+        <v>41996.40475825188</v>
+      </c>
+      <c r="D261">
+        <v>0.01129500848135714</v>
+      </c>
+      <c r="E261">
+        <v>0.5623269647448588</v>
+      </c>
+      <c r="F261">
+        <v>79.95759408798196</v>
+      </c>
+      <c r="G261">
+        <v>324.9771312954802</v>
+      </c>
+      <c r="H261">
+        <v>55.7016655425187</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>50260</v>
+      </c>
+      <c r="C262">
+        <v>41996.35692188179</v>
+      </c>
+      <c r="D262">
+        <v>0.01124732540488438</v>
+      </c>
+      <c r="E262">
+        <v>0.5642543476763844</v>
+      </c>
+      <c r="F262">
+        <v>79.87850672952895</v>
+      </c>
+      <c r="G262">
+        <v>325.3884139339369</v>
+      </c>
+      <c r="H262">
+        <v>58.52298779499644</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>50261</v>
+      </c>
+      <c r="C263">
+        <v>41996.4196452043</v>
+      </c>
+      <c r="D263">
+        <v>0.01119798253329915</v>
+      </c>
+      <c r="E263">
+        <v>0.5667794604852687</v>
+      </c>
+      <c r="F263">
+        <v>79.76806056444399</v>
+      </c>
+      <c r="G263">
+        <v>325.8655340823755</v>
+      </c>
+      <c r="H263">
+        <v>61.31122214537496</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>50262</v>
+      </c>
+      <c r="C264">
+        <v>41996.59519224313</v>
+      </c>
+      <c r="D264">
+        <v>0.01114412641501751</v>
+      </c>
+      <c r="E264">
+        <v>0.5700386522134453</v>
+      </c>
+      <c r="F264">
+        <v>79.65596697967547</v>
+      </c>
+      <c r="G264">
+        <v>326.3775147812784</v>
+      </c>
+      <c r="H264">
+        <v>64.06793087343502</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>50263</v>
+      </c>
+      <c r="C265">
+        <v>41996.86003197513</v>
+      </c>
+      <c r="D265">
+        <v>0.01108265182552134</v>
+      </c>
+      <c r="E265">
+        <v>0.5740109381984417</v>
+      </c>
+      <c r="F265">
+        <v>79.57962846693776</v>
+      </c>
+      <c r="G265">
+        <v>326.8788317039115</v>
+      </c>
+      <c r="H265">
+        <v>66.8014737600532</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>50264</v>
+      </c>
+      <c r="C266">
+        <v>41997.15785807872</v>
+      </c>
+      <c r="D266">
+        <v>0.01101084833158388</v>
+      </c>
+      <c r="E266">
+        <v>0.5784678586070353</v>
+      </c>
+      <c r="F266">
+        <v>79.57400067441711</v>
+      </c>
+      <c r="G266">
+        <v>327.3177497268057</v>
+      </c>
+      <c r="H266">
+        <v>69.52873161710475</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>50265</v>
+      </c>
+      <c r="C267">
+        <v>41997.40670753365</v>
+      </c>
+      <c r="D267">
+        <v>0.01092743103794472</v>
+      </c>
+      <c r="E267">
+        <v>0.5829950111216324</v>
+      </c>
+      <c r="F267">
+        <v>79.65790974619597</v>
+      </c>
+      <c r="G267">
+        <v>327.650781894586</v>
+      </c>
+      <c r="H267">
+        <v>72.27427275298145</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>50266</v>
+      </c>
+      <c r="C268">
+        <v>41997.52372735868</v>
+      </c>
+      <c r="D268">
+        <v>0.01083355400011354</v>
+      </c>
+      <c r="E268">
+        <v>0.5871110406931327</v>
+      </c>
+      <c r="F268">
+        <v>79.82356590398827</v>
+      </c>
+      <c r="G268">
+        <v>327.8583979470833</v>
+      </c>
+      <c r="H268">
+        <v>75.06515197615366</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>50267</v>
+      </c>
+      <c r="C269">
+        <v>41997.45696609803</v>
+      </c>
+      <c r="D269">
+        <v>0.01073306313581751</v>
+      </c>
+      <c r="E269">
+        <v>0.5904452364291692</v>
+      </c>
+      <c r="F269">
+        <v>80.03680234746491</v>
+      </c>
+      <c r="G269">
+        <v>327.9537908193075</v>
+      </c>
+      <c r="H269">
+        <v>77.92202632865059</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>50268</v>
+      </c>
+      <c r="C270">
+        <v>41997.20426719714</v>
+      </c>
+      <c r="D270">
+        <v>0.01063148463977061</v>
+      </c>
+      <c r="E270">
+        <v>0.5928779425913467</v>
+      </c>
+      <c r="F270">
+        <v>80.24966264788476</v>
+      </c>
+      <c r="G270">
+        <v>327.9786874946628</v>
+      </c>
+      <c r="H270">
+        <v>80.85091777179304</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>50269</v>
+      </c>
+      <c r="C271">
+        <v>41996.8078291359</v>
+      </c>
+      <c r="D271">
+        <v>0.01053413154972067</v>
+      </c>
+      <c r="E271">
+        <v>0.5945637915595013</v>
+      </c>
+      <c r="F271">
+        <v>80.41852617793521</v>
+      </c>
+      <c r="G271">
+        <v>327.9876257210772</v>
+      </c>
+      <c r="H271">
+        <v>83.84090759281074</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>50270</v>
+      </c>
+      <c r="C272">
+        <v>41996.33166173303</v>
+      </c>
+      <c r="D272">
+        <v>0.01044442149582723</v>
+      </c>
+      <c r="E272">
+        <v>0.5958393004382261</v>
+      </c>
+      <c r="F272">
+        <v>80.51792038628713</v>
+      </c>
+      <c r="G272">
+        <v>328.0290349448618</v>
+      </c>
+      <c r="H272">
+        <v>86.86922306301716</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>50271</v>
+      </c>
+      <c r="C273">
+        <v>41995.83839635361</v>
+      </c>
+      <c r="D273">
+        <v>0.01036325641227893</v>
+      </c>
+      <c r="E273">
+        <v>0.5970844361242261</v>
+      </c>
+      <c r="F273">
+        <v>80.54467312538684</v>
+      </c>
+      <c r="G273">
+        <v>328.1321587715705</v>
+      </c>
+      <c r="H273">
+        <v>89.91006309149283</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>50272</v>
+      </c>
+      <c r="C274">
+        <v>41995.37613663963</v>
+      </c>
+      <c r="D274">
+        <v>0.01028946155419286</v>
+      </c>
+      <c r="E274">
+        <v>0.5986098933971798</v>
+      </c>
+      <c r="F274">
+        <v>80.51369797438706</v>
+      </c>
+      <c r="G274">
+        <v>328.3036862743641</v>
+      </c>
+      <c r="H274">
+        <v>92.94207587463794</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>50273</v>
+      </c>
+      <c r="C275">
+        <v>41994.9758734209</v>
+      </c>
+      <c r="D275">
+        <v>0.010220712245082</v>
+      </c>
+      <c r="E275">
+        <v>0.6006006625385694</v>
+      </c>
+      <c r="F275">
+        <v>80.45000354554831</v>
+      </c>
+      <c r="G275">
+        <v>328.5321366778857</v>
+      </c>
+      <c r="H275">
+        <v>95.95189926950452</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>50274</v>
+      </c>
+      <c r="C276">
+        <v>41994.65474783514</v>
+      </c>
+      <c r="D276">
+        <v>0.01015440341841915</v>
+      </c>
+      <c r="E276">
+        <v>0.6031090441646902</v>
+      </c>
+      <c r="F276">
+        <v>80.38092290296461</v>
+      </c>
+      <c r="G276">
+        <v>328.7955842713541</v>
+      </c>
+      <c r="H276">
+        <v>98.9341864400232</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>50275</v>
+      </c>
+      <c r="C277">
+        <v>41994.42059914689</v>
+      </c>
+      <c r="D277">
+        <v>0.0100882216889323</v>
+      </c>
+      <c r="E277">
+        <v>0.6060764501929922</v>
+      </c>
+      <c r="F277">
+        <v>80.33046898075256</v>
+      </c>
+      <c r="G277">
+        <v>329.0691213746472</v>
+      </c>
+      <c r="H277">
+        <v>101.8897975433313</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>50276</v>
+      </c>
+      <c r="C278">
+        <v>41994.27538550418</v>
+      </c>
+      <c r="D278">
+        <v>0.01002042261045066</v>
+      </c>
+      <c r="E278">
+        <v>0.6093663663649324</v>
+      </c>
+      <c r="F278">
+        <v>80.31606833692976</v>
+      </c>
+      <c r="G278">
+        <v>329.3303730578415</v>
+      </c>
+      <c r="H278">
+        <v>104.8235744412293</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>50277</v>
+      </c>
+      <c r="C279">
+        <v>41994.21689454782</v>
+      </c>
+      <c r="D279">
+        <v>0.00994990594605045</v>
+      </c>
+      <c r="E279">
+        <v>0.6127985933005404</v>
+      </c>
+      <c r="F279">
+        <v>80.34719892667374</v>
+      </c>
+      <c r="G279">
+        <v>329.562823086177</v>
+      </c>
+      <c r="H279">
+        <v>107.7424024665628</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>50278</v>
+      </c>
+      <c r="C280">
+        <v>41994.23912295191</v>
+      </c>
+      <c r="D280">
+        <v>0.009876175741431046</v>
+      </c>
+      <c r="E280">
+        <v>0.616180706312077</v>
+      </c>
+      <c r="F280">
+        <v>80.42535996902029</v>
+      </c>
+      <c r="G280">
+        <v>329.7573358352411</v>
+      </c>
+      <c r="H280">
+        <v>110.6537414522284</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>50279</v>
+      </c>
+      <c r="C281">
+        <v>41994.33202668656</v>
+      </c>
+      <c r="D281">
+        <v>0.009799238640236844</v>
+      </c>
+      <c r="E281">
+        <v>0.6193353383144299</v>
+      </c>
+      <c r="F281">
+        <v>80.54493894198855</v>
+      </c>
+      <c r="G281">
+        <v>329.9123449085194</v>
+      </c>
+      <c r="H281">
+        <v>113.5645885933519</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>50280</v>
+      </c>
+      <c r="C282">
+        <v>41994.4813043652</v>
+      </c>
+      <c r="D282">
+        <v>0.00971946873247174</v>
+      </c>
+      <c r="E282">
+        <v>0.6221224875464249</v>
+      </c>
+      <c r="F282">
+        <v>80.69468167687172</v>
+      </c>
+      <c r="G282">
+        <v>330.0330672843759</v>
+      </c>
+      <c r="H282">
+        <v>116.4808080361505</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>50281</v>
+      </c>
+      <c r="C283">
+        <v>41994.6686308125</v>
+      </c>
+      <c r="D283">
+        <v>0.00963745833676719</v>
+      </c>
+      <c r="E283">
+        <v>0.6244559710324634</v>
+      </c>
+      <c r="F283">
+        <v>80.85954700652654</v>
+      </c>
+      <c r="G283">
+        <v>330.1299886635368</v>
+      </c>
+      <c r="H283">
+        <v>119.4068001993147</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>50282</v>
+      </c>
+      <c r="C284">
+        <v>41994.87241453405</v>
+      </c>
+      <c r="D284">
+        <v>0.009553876370935554</v>
+      </c>
+      <c r="E284">
+        <v>0.6263132668780418</v>
+      </c>
+      <c r="F284">
+        <v>81.02275650941647</v>
+      </c>
+      <c r="G284">
+        <v>330.216813952033</v>
+      </c>
+      <c r="H284">
+        <v>122.3455066368563</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>50283</v>
+      </c>
+      <c r="C285">
+        <v>41995.0688472059</v>
+      </c>
+      <c r="D285">
+        <v>0.00946936054312463</v>
+      </c>
+      <c r="E285">
+        <v>0.6277385292486457</v>
+      </c>
+      <c r="F285">
+        <v>81.1678755313564</v>
+      </c>
+      <c r="G285">
+        <v>330.3080770434934</v>
+      </c>
+      <c r="H285">
+        <v>125.2987203957963</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>50284</v>
+      </c>
+      <c r="C286">
+        <v>41995.232897356</v>
+      </c>
+      <c r="D286">
+        <v>0.009384468792762349</v>
+      </c>
+      <c r="E286">
+        <v>0.6288392195350958</v>
+      </c>
+      <c r="F286">
+        <v>81.28081008199162</v>
+      </c>
+      <c r="G286">
+        <v>330.416629254911</v>
+      </c>
+      <c r="H286">
+        <v>128.2675980362166</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>50285</v>
+      </c>
+      <c r="C287">
+        <v>41995.33907431615</v>
+      </c>
+      <c r="D287">
+        <v>0.009299704951952502</v>
+      </c>
+      <c r="E287">
+        <v>0.629777070850997</v>
+      </c>
+      <c r="F287">
+        <v>81.35166754269332</v>
+      </c>
+      <c r="G287">
+        <v>330.5512626484988</v>
+      </c>
+      <c r="H287">
+        <v>131.2531688528988</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>50286</v>
+      </c>
+      <c r="C288">
+        <v>41995.36224904213</v>
+      </c>
+      <c r="D288">
+        <v>0.009215611723957306</v>
+      </c>
+      <c r="E288">
+        <v>0.6307536240759698</v>
+      </c>
+      <c r="F288">
+        <v>81.37646698204387</v>
+      </c>
+      <c r="G288">
+        <v>330.714785276444</v>
+      </c>
+      <c r="H288">
+        <v>134.2565376758151</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>50287</v>
+      </c>
+      <c r="C289">
+        <v>41995.27944758179</v>
+      </c>
+      <c r="D289">
+        <v>0.009132889158222891</v>
+      </c>
+      <c r="E289">
+        <v>0.6319893816936346</v>
+      </c>
+      <c r="F289">
+        <v>81.35863762858688</v>
+      </c>
+      <c r="G289">
+        <v>330.9029700422217</v>
+      </c>
+      <c r="H289">
+        <v>137.2784200923133</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>50288</v>
+      </c>
+      <c r="C290">
+        <v>41995.07405708281</v>
+      </c>
+      <c r="D290">
+        <v>0.009052448086799397</v>
+      </c>
+      <c r="E290">
+        <v>0.6336943557291558</v>
+      </c>
+      <c r="F290">
+        <v>81.31005614068218</v>
+      </c>
+      <c r="G290">
+        <v>331.1049164516529</v>
+      </c>
+      <c r="H290">
+        <v>140.3177203595195</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>50289</v>
+      </c>
+      <c r="C291">
+        <v>41994.74373127371</v>
+      </c>
+      <c r="D291">
+        <v>0.008975257525023282</v>
+      </c>
+      <c r="E291">
+        <v>0.6360278314672818</v>
+      </c>
+      <c r="F291">
+        <v>81.25103816773985</v>
+      </c>
+      <c r="G291">
+        <v>331.3053245558679</v>
+      </c>
+      <c r="H291">
+        <v>143.3692408896293</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>50290</v>
+      </c>
+      <c r="C292">
+        <v>41994.31149488431</v>
+      </c>
+      <c r="D292">
+        <v>0.008901844045983256</v>
+      </c>
+      <c r="E292">
+        <v>0.6390486631277341</v>
+      </c>
+      <c r="F292">
+        <v>81.20834234693218</v>
+      </c>
+      <c r="G292">
+        <v>331.4886531209605</v>
+      </c>
+      <c r="H292">
+        <v>146.4215031836688</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>50291</v>
+      </c>
+      <c r="C293">
+        <v>41993.83542389401</v>
+      </c>
+      <c r="D293">
+        <v>0.008831453560510103</v>
+      </c>
+      <c r="E293">
+        <v>0.6426663425437192</v>
+      </c>
+      <c r="F293">
+        <v>81.21021642982988</v>
+      </c>
+      <c r="G293">
+        <v>331.643919434901</v>
+      </c>
+      <c r="H293">
+        <v>149.4569097004764</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>50292</v>
+      </c>
+      <c r="C294">
+        <v>41993.40744309064</v>
+      </c>
+      <c r="D294">
+        <v>0.008761266421317662</v>
+      </c>
+      <c r="E294">
+        <v>0.6466163851441695</v>
+      </c>
+      <c r="F294">
+        <v>81.27835755774862</v>
+      </c>
+      <c r="G294">
+        <v>331.7676211158546</v>
+      </c>
+      <c r="H294">
+        <v>152.4569096119639</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>50293</v>
+      </c>
+      <c r="C295">
+        <v>41993.13211318634</v>
+      </c>
+      <c r="D295">
+        <v>0.008686473788851026</v>
+      </c>
+      <c r="E295">
+        <v>0.6504925156514632</v>
+      </c>
+      <c r="F295">
+        <v>81.41869057449833</v>
+      </c>
+      <c r="G295">
+        <v>331.8626464748412</v>
+      </c>
+      <c r="H295">
+        <v>155.4123954201009</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>50294</v>
+      </c>
+      <c r="C296">
+        <v>41993.08800583734</v>
+      </c>
+      <c r="D296">
+        <v>0.008601880468513737</v>
+      </c>
+      <c r="E296">
+        <v>0.6538554528409846</v>
+      </c>
+      <c r="F296">
+        <v>81.61534323166177</v>
+      </c>
+      <c r="G296">
+        <v>331.9341144945827</v>
+      </c>
+      <c r="H296">
+        <v>158.3339776450872</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>50295</v>
+      </c>
+      <c r="C297">
+        <v>41993.29226180804</v>
+      </c>
+      <c r="D297">
+        <v>0.008504559096319626</v>
+      </c>
+      <c r="E297">
+        <v>0.6563926616813293</v>
+      </c>
+      <c r="F297">
+        <v>81.8328134226022</v>
+      </c>
+      <c r="G297">
+        <v>331.9862542573881</v>
+      </c>
+      <c r="H297">
+        <v>161.2529819993067</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>50296</v>
+      </c>
+      <c r="C298">
+        <v>41993.69358721394</v>
+      </c>
+      <c r="D298">
+        <v>0.008395745480100178</v>
+      </c>
+      <c r="E298">
+        <v>0.6580490924531872</v>
+      </c>
+      <c r="F298">
+        <v>82.0277399554214</v>
+      </c>
+      <c r="G298">
+        <v>332.0231445242387</v>
+      </c>
+      <c r="H298">
+        <v>164.2089048410852</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>50297</v>
+      </c>
+      <c r="C299">
+        <v>41994.19907226867</v>
+      </c>
+      <c r="D299">
+        <v>0.00828036501168734</v>
+      </c>
+      <c r="E299">
+        <v>0.6590445898178122</v>
+      </c>
+      <c r="F299">
+        <v>82.16513313037937</v>
+      </c>
+      <c r="G299">
+        <v>332.0510245190048</v>
+      </c>
+      <c r="H299">
+        <v>167.2307734917054</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>50298</v>
+      </c>
+      <c r="C300">
+        <v>41994.71446150967</v>
+      </c>
+      <c r="D300">
+        <v>0.008164548698582423</v>
+      </c>
+      <c r="E300">
+        <v>0.6597657547436691</v>
+      </c>
+      <c r="F300">
+        <v>82.23016532303153</v>
+      </c>
+      <c r="G300">
+        <v>332.077762162323</v>
+      </c>
+      <c r="H300">
+        <v>170.3257756854947</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>50299</v>
+      </c>
+      <c r="C301">
+        <v>41995.17261330936</v>
+      </c>
+      <c r="D301">
+        <v>0.008053080369763722</v>
+      </c>
+      <c r="E301">
+        <v>0.660605933539032</v>
+      </c>
+      <c r="F301">
+        <v>82.22993195584731</v>
+      </c>
+      <c r="G301">
+        <v>332.1088788064002</v>
+      </c>
+      <c r="H301">
+        <v>173.4813996421225</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>50300</v>
+      </c>
+      <c r="C302">
+        <v>41995.54068907931</v>
+      </c>
+      <c r="D302">
+        <v>0.007948278724602343</v>
+      </c>
+      <c r="E302">
+        <v>0.661843624342387</v>
+      </c>
+      <c r="F302">
+        <v>82.18669130995765</v>
+      </c>
+      <c r="G302">
+        <v>332.1437298484938</v>
+      </c>
+      <c r="H302">
+        <v>176.6759960702095</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>50301</v>
+      </c>
+      <c r="C303">
+        <v>41995.81254500617</v>
+      </c>
+      <c r="D303">
+        <v>0.007850331522532823</v>
+      </c>
+      <c r="E303">
+        <v>0.6635982060188708</v>
+      </c>
+      <c r="F303">
+        <v>82.12823176338586</v>
+      </c>
+      <c r="G303">
+        <v>332.1749803555809</v>
+      </c>
+      <c r="H303">
+        <v>179.8889600283385</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>50302</v>
+      </c>
+      <c r="C304">
+        <v>41995.99694475396</v>
+      </c>
+      <c r="D304">
+        <v>0.007758252003409915</v>
+      </c>
+      <c r="E304">
+        <v>0.6658471245149965</v>
+      </c>
+      <c r="F304">
+        <v>82.08008414959102</v>
+      </c>
+      <c r="G304">
+        <v>332.1913119485312</v>
+      </c>
+      <c r="H304">
+        <v>183.1058522783561</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>50303</v>
+      </c>
+      <c r="C305">
+        <v>41996.10820623352</v>
+      </c>
+      <c r="D305">
+        <v>0.007670740370992388</v>
+      </c>
+      <c r="E305">
+        <v>0.6684699009389318</v>
+      </c>
+      <c r="F305">
+        <v>82.06121586413434</v>
+      </c>
+      <c r="G305">
+        <v>332.1813769105453</v>
+      </c>
+      <c r="H305">
+        <v>186.3187885764005</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>50304</v>
+      </c>
+      <c r="C306">
+        <v>41996.16103545945</v>
+      </c>
+      <c r="D306">
+        <v>0.007586677234379769</v>
+      </c>
+      <c r="E306">
+        <v>0.6712934096504953</v>
+      </c>
+      <c r="F306">
+        <v>82.08262447516562</v>
+      </c>
+      <c r="G306">
+        <v>332.1372550807467</v>
+      </c>
+      <c r="H306">
+        <v>189.5244168548611</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>50305</v>
+      </c>
+      <c r="C307">
+        <v>41996.16873664533</v>
+      </c>
+      <c r="D307">
+        <v>0.007505277396434168</v>
+      </c>
+      <c r="E307">
+        <v>0.6741280828957805</v>
+      </c>
+      <c r="F307">
+        <v>82.14760227409799</v>
+      </c>
+      <c r="G307">
+        <v>332.0566813918305</v>
+      </c>
+      <c r="H307">
+        <v>192.7214441484236</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>50306</v>
+      </c>
+      <c r="C308">
+        <v>41996.14339242169</v>
+      </c>
+      <c r="D308">
+        <v>0.007426027375089654</v>
+      </c>
+      <c r="E308">
+        <v>0.6767945540752727</v>
+      </c>
+      <c r="F308">
+        <v>82.25271766488046</v>
+      </c>
+      <c r="G308">
+        <v>331.9439904587861</v>
+      </c>
+      <c r="H308">
+        <v>195.9087247141674</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>50307</v>
+      </c>
+      <c r="C309">
+        <v>41996.09685696088</v>
+      </c>
+      <c r="D309">
+        <v>0.007348520063582784</v>
+      </c>
+      <c r="E309">
+        <v>0.6791436740410662</v>
+      </c>
+      <c r="F309">
+        <v>82.38904726261505</v>
+      </c>
+      <c r="G309">
+        <v>331.8099054106898</v>
+      </c>
+      <c r="H309">
+        <v>199.0842514788607</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>50308</v>
+      </c>
+      <c r="C310">
+        <v>41996.04180145237</v>
+      </c>
+      <c r="D310">
+        <v>0.007272268243254093</v>
+      </c>
+      <c r="E310">
+        <v>0.6810724097844059</v>
+      </c>
+      <c r="F310">
+        <v>82.54355469347233</v>
+      </c>
+      <c r="G310">
+        <v>331.6702502788319</v>
+      </c>
+      <c r="H310">
+        <v>202.2450768664489</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>50309</v>
+      </c>
+      <c r="C311">
+        <v>41995.99237714994</v>
+      </c>
+      <c r="D311">
+        <v>0.007196555285001751</v>
+      </c>
+      <c r="E311">
+        <v>0.6825362922980363</v>
+      </c>
+      <c r="F311">
+        <v>82.70067675028902</v>
+      </c>
+      <c r="G311">
+        <v>331.5436441641901</v>
+      </c>
+      <c r="H311">
+        <v>205.3880435684522</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>50310</v>
+      </c>
+      <c r="C312">
+        <v>41995.96431767505</v>
+      </c>
+      <c r="D312">
+        <v>0.007120365159411577</v>
+      </c>
+      <c r="E312">
+        <v>0.6835573084660606</v>
+      </c>
+      <c r="F312">
+        <v>82.84418042806286</v>
+      </c>
+      <c r="G312">
+        <v>331.4483424356663</v>
+      </c>
+      <c r="H312">
+        <v>208.5110944105661</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>50311</v>
+      </c>
+      <c r="C313">
+        <v>41995.97451799376</v>
+      </c>
+      <c r="D313">
+        <v>0.007042416088057405</v>
+      </c>
+      <c r="E313">
+        <v>0.6842252052384306</v>
+      </c>
+      <c r="F313">
+        <v>82.95925885337505</v>
+      </c>
+      <c r="G313">
+        <v>331.3985886026301</v>
+      </c>
+      <c r="H313">
+        <v>211.6148272696689</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>50312</v>
+      </c>
+      <c r="C314">
+        <v>41996.04027741961</v>
+      </c>
+      <c r="D314">
+        <v>0.006961299691301469</v>
+      </c>
+      <c r="E314">
+        <v>0.6846903408718706</v>
+      </c>
+      <c r="F314">
+        <v>83.03470720762344</v>
+      </c>
+      <c r="G314">
+        <v>331.4010186291566</v>
+      </c>
+      <c r="H314">
+        <v>214.7039105100298</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>50313</v>
+      </c>
+      <c r="C315">
+        <v>41996.1784067753</v>
+      </c>
+      <c r="D315">
+        <v>0.006875706013141652</v>
+      </c>
+      <c r="E315">
+        <v>0.6851472420723422</v>
+      </c>
+      <c r="F315">
+        <v>83.06491834351202</v>
+      </c>
+      <c r="G315">
+        <v>331.4517264435121</v>
+      </c>
+      <c r="H315">
+        <v>217.7880104979934</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>50314</v>
+      </c>
+      <c r="C316">
+        <v>41996.40420889361</v>
+      </c>
+      <c r="D316">
+        <v>0.006784702865767113</v>
+      </c>
+      <c r="E316">
+        <v>0.6858093338982965</v>
+      </c>
+      <c r="F316">
+        <v>83.05139020312251</v>
+      </c>
+      <c r="G316">
+        <v>331.5345630988068</v>
+      </c>
+      <c r="H316">
+        <v>220.8819682686565</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>50315</v>
+      </c>
+      <c r="C317">
+        <v>41996.72994414269</v>
+      </c>
+      <c r="D317">
+        <v>0.006688037128701843</v>
+      </c>
+      <c r="E317">
+        <v>0.6868763793965996</v>
+      </c>
+      <c r="F317">
+        <v>83.00343165260493</v>
+      </c>
+      <c r="G317">
+        <v>331.6212192957645</v>
+      </c>
+      <c r="H317">
+        <v>224.004991423746</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>50316</v>
+      </c>
+      <c r="C318">
+        <v>41997.16189505543</v>
+      </c>
+      <c r="D318">
+        <v>0.0065864234660723</v>
+      </c>
+      <c r="E318">
+        <v>0.6884970139070914</v>
+      </c>
+      <c r="F318">
+        <v>82.93775348254827</v>
+      </c>
+      <c r="G318">
+        <v>331.6737606601404</v>
+      </c>
+      <c r="H318">
+        <v>227.1785067928614</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>50317</v>
+      </c>
+      <c r="C319">
+        <v>41997.69484647565</v>
+      </c>
+      <c r="D319">
+        <v>0.006481758100302248</v>
+      </c>
+      <c r="E319">
+        <v>0.6907301683014527</v>
+      </c>
+      <c r="F319">
+        <v>82.87662228383645</v>
+      </c>
+      <c r="G319">
+        <v>331.6505095305301</v>
+      </c>
+      <c r="H319">
+        <v>230.4221022984271</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>50318</v>
+      </c>
+      <c r="C320">
+        <v>41998.30337398798</v>
+      </c>
+      <c r="D320">
+        <v>0.006377120830963782</v>
+      </c>
+      <c r="E320">
+        <v>0.693512304110231</v>
+      </c>
+      <c r="F320">
+        <v>82.84430178543707</v>
+      </c>
+      <c r="G320">
+        <v>331.516061494122</v>
+      </c>
+      <c r="H320">
+        <v>233.7470429516362</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>50319</v>
+      </c>
+      <c r="C321">
+        <v>41998.93191213941</v>
+      </c>
+      <c r="D321">
+        <v>0.006276328701260847</v>
+      </c>
+      <c r="E321">
+        <v>0.6966424668055117</v>
+      </c>
+      <c r="F321">
+        <v>82.86177900044056</v>
+      </c>
+      <c r="G321">
+        <v>331.2548260045579</v>
+      </c>
+      <c r="H321">
+        <v>237.1479718278757</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>50320</v>
+      </c>
+      <c r="C322">
+        <v>41999.49083577122</v>
+      </c>
+      <c r="D322">
+        <v>0.006182807787137967</v>
+      </c>
+      <c r="E322">
+        <v>0.6998014404282258</v>
+      </c>
+      <c r="F322">
+        <v>82.94046605874136</v>
+      </c>
+      <c r="G322">
+        <v>330.8838260962206</v>
+      </c>
+      <c r="H322">
+        <v>240.5963733082296</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>50321</v>
+      </c>
+      <c r="C323">
+        <v>41999.8708491433</v>
+      </c>
+      <c r="D323">
+        <v>0.006097897970344239</v>
+      </c>
+      <c r="E323">
+        <v>0.7026178871364595</v>
+      </c>
+      <c r="F323">
+        <v>83.07666076351408</v>
+      </c>
+      <c r="G323">
+        <v>330.455747661895</v>
+      </c>
+      <c r="H323">
+        <v>244.0430443172647</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>50322</v>
+      </c>
+      <c r="C324">
+        <v>41999.9833460196</v>
+      </c>
+      <c r="D324">
+        <v>0.006019471824104757</v>
+      </c>
+      <c r="E324">
+        <v>0.7047762102726534</v>
+      </c>
+      <c r="F324">
+        <v>83.24950225535694</v>
+      </c>
+      <c r="G324">
+        <v>330.04327329401</v>
+      </c>
+      <c r="H324">
+        <v>247.4358422995057</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>50323</v>
+      </c>
+      <c r="C325">
+        <v>41999.81184107674</v>
+      </c>
+      <c r="D325">
+        <v>0.005942265889143157</v>
+      </c>
+      <c r="E325">
+        <v>0.7061312090873643</v>
+      </c>
+      <c r="F325">
+        <v>83.42493837931363</v>
+      </c>
+      <c r="G325">
+        <v>329.7073179414404</v>
+      </c>
+      <c r="H325">
+        <v>250.7476108232518</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>50324</v>
+      </c>
+      <c r="C326">
+        <v>41999.43491783045</v>
+      </c>
+      <c r="D326">
+        <v>0.005860419573649479</v>
+      </c>
+      <c r="E326">
+        <v>0.7067735578336779</v>
+      </c>
+      <c r="F326">
+        <v>83.565955980765</v>
+      </c>
+      <c r="G326">
+        <v>329.4687162517125</v>
+      </c>
+      <c r="H326">
+        <v>253.9944499732919</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>50325</v>
+      </c>
+      <c r="C327">
+        <v>41998.99304594694</v>
+      </c>
+      <c r="D327">
+        <v>0.005771015912236891</v>
+      </c>
+      <c r="E327">
+        <v>0.7070015591282534</v>
+      </c>
+      <c r="F327">
+        <v>83.6452145162808</v>
+      </c>
+      <c r="G327">
+        <v>329.3053505028237</v>
+      </c>
+      <c r="H327">
+        <v>257.2261253386192</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>50326.00000000001</v>
+      </c>
+      <c r="C328">
+        <v>41998.62052716123</v>
+      </c>
+      <c r="D328">
+        <v>0.005674531399658476</v>
+      </c>
+      <c r="E328">
+        <v>0.7072089396084891</v>
+      </c>
+      <c r="F328">
+        <v>83.65489934901726</v>
+      </c>
+      <c r="G328">
+        <v>329.168985360111</v>
+      </c>
+      <c r="H328">
+        <v>260.4992322161386</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>50327</v>
+      </c>
+      <c r="C329">
+        <v>41998.39517873021</v>
+      </c>
+      <c r="D329">
+        <v>0.00557384803243634</v>
+      </c>
+      <c r="E329">
+        <v>0.7077418606106515</v>
+      </c>
+      <c r="F329">
+        <v>83.60728751193187</v>
+      </c>
+      <c r="G329">
+        <v>329.0098626985413</v>
+      </c>
+      <c r="H329">
+        <v>263.8518611804523</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>50328</v>
+      </c>
+      <c r="C330">
+        <v>41998.33136210999</v>
+      </c>
+      <c r="D330">
+        <v>0.005472545330664984</v>
+      </c>
+      <c r="E330">
+        <v>0.7087995461123956</v>
+      </c>
+      <c r="F330">
+        <v>83.52731851087081</v>
+      </c>
+      <c r="G330">
+        <v>328.7916767876389</v>
+      </c>
+      <c r="H330">
+        <v>267.2958992276566</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>50329</v>
+      </c>
+      <c r="C331">
+        <v>41998.4022838123</v>
+      </c>
+      <c r="D331">
+        <v>0.00537339012508138</v>
+      </c>
+      <c r="E331">
+        <v>0.7104123326090962</v>
+      </c>
+      <c r="F331">
+        <v>83.44278349401283</v>
+      </c>
+      <c r="G331">
+        <v>328.4931332065439</v>
+      </c>
+      <c r="H331">
+        <v>270.8251737848169</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>50330</v>
+      </c>
+      <c r="C332">
+        <v>41998.56652509284</v>
+      </c>
+      <c r="D332">
+        <v>0.005278013873719894</v>
+      </c>
+      <c r="E332">
+        <v>0.7124781352189009</v>
+      </c>
+      <c r="F332">
+        <v>83.37671815471877</v>
+      </c>
+      <c r="G332">
+        <v>328.1045035942053</v>
+      </c>
+      <c r="H332">
+        <v>274.4265140205389</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>50331</v>
+      </c>
+      <c r="C333">
+        <v>41998.78501419127</v>
+      </c>
+      <c r="D333">
+        <v>0.005187230495488982</v>
+      </c>
+      <c r="E333">
+        <v>0.71481984626815</v>
+      </c>
+      <c r="F333">
+        <v>83.34387537299625</v>
+      </c>
+      <c r="G333">
+        <v>327.6242173589838</v>
+      </c>
+      <c r="H333">
+        <v>278.0867483514714</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>50332</v>
+      </c>
+      <c r="C334">
+        <v>41999.02747171017</v>
+      </c>
+      <c r="D334">
+        <v>0.005101457163923627</v>
+      </c>
+      <c r="E334">
+        <v>0.7172359826850756</v>
+      </c>
+      <c r="F334">
+        <v>83.35042824897036</v>
+      </c>
+      <c r="G334">
+        <v>327.0571959733877</v>
+      </c>
+      <c r="H334">
+        <v>281.7947325814499</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>50333</v>
+      </c>
+      <c r="C335">
+        <v>41999.27242673415</v>
+      </c>
+      <c r="D335">
+        <v>0.005020977666668512</v>
+      </c>
+      <c r="E335">
+        <v>0.7195351251897386</v>
+      </c>
+      <c r="F335">
+        <v>83.39525910161557</v>
+      </c>
+      <c r="G335">
+        <v>326.4145874248103</v>
+      </c>
+      <c r="H335">
+        <v>285.5403741523797</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>50334</v>
+      </c>
+      <c r="C336">
+        <v>41999.50467248963</v>
+      </c>
+      <c r="D336">
+        <v>0.004946007541210726</v>
+      </c>
+      <c r="E336">
+        <v>0.7215565386023852</v>
+      </c>
+      <c r="F336">
+        <v>83.47161965840208</v>
+      </c>
+      <c r="G336">
+        <v>325.7140360272588</v>
+      </c>
+      <c r="H336">
+        <v>289.3127306331698</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>50335</v>
+      </c>
+      <c r="C337">
+        <v>41999.71084660396</v>
+      </c>
+      <c r="D337">
+        <v>0.004876738286989897</v>
+      </c>
+      <c r="E337">
+        <v>0.723182814409677</v>
+      </c>
+      <c r="F337">
+        <v>83.56858904626704</v>
+      </c>
+      <c r="G337">
+        <v>324.9808073084501</v>
+      </c>
+      <c r="H337">
+        <v>293.0974597152404</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>50336</v>
+      </c>
+      <c r="C338">
+        <v>41999.87994611028</v>
+      </c>
+      <c r="D338">
+        <v>0.004813009823635942</v>
+      </c>
+      <c r="E338">
+        <v>0.724349952654154</v>
+      </c>
+      <c r="F338">
+        <v>83.67250362991739</v>
+      </c>
+      <c r="G338">
+        <v>324.2453982455391</v>
+      </c>
+      <c r="H338">
+        <v>296.8777658422335</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>50337</v>
+      </c>
+      <c r="C339">
+        <v>42000.00428639886</v>
+      </c>
+      <c r="D339">
+        <v>0.004753847223954256</v>
+      </c>
+      <c r="E339">
+        <v>0.7250560589594451</v>
+      </c>
+      <c r="F339">
+        <v>83.76845781513313</v>
+      </c>
+      <c r="G339">
+        <v>323.5380541089748</v>
+      </c>
+      <c r="H339">
+        <v>300.6383445195455</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>50338</v>
+      </c>
+      <c r="C340">
+        <v>42000.07248128111</v>
+      </c>
+      <c r="D340">
+        <v>0.004697913163635103</v>
+      </c>
+      <c r="E340">
+        <v>0.7253667353967038</v>
+      </c>
+      <c r="F340">
+        <v>83.84175236782896</v>
+      </c>
+      <c r="G340">
+        <v>322.8893001291523</v>
+      </c>
+      <c r="H340">
+        <v>304.3634804095845</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>50339.00000000001</v>
+      </c>
+      <c r="C341">
+        <v>42000.0731646907</v>
+      </c>
+      <c r="D341">
+        <v>0.004643301587011197</v>
+      </c>
+      <c r="E341">
+        <v>0.7254153981643923</v>
+      </c>
+      <c r="F341">
+        <v>83.88007432827806</v>
+      </c>
+      <c r="G341">
+        <v>322.322019619275</v>
+      </c>
+      <c r="H341">
+        <v>308.0427540476638</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>50340</v>
+      </c>
+      <c r="C342">
+        <v>41999.99622720846</v>
+      </c>
+      <c r="D342">
+        <v>0.004587736813323156</v>
+      </c>
+      <c r="E342">
+        <v>0.7253928002899336</v>
+      </c>
+      <c r="F342">
+        <v>83.87580352055213</v>
+      </c>
+      <c r="G342">
+        <v>321.8453665337493</v>
+      </c>
+      <c r="H342">
+        <v>311.6748124605558</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>50341</v>
+      </c>
+      <c r="C343">
+        <v>41999.83445158949</v>
+      </c>
+      <c r="D343">
+        <v>0.00452892392332908</v>
+      </c>
+      <c r="E343">
+        <v>0.7255232010499141</v>
+      </c>
+      <c r="F343">
+        <v>83.8281052044704</v>
+      </c>
+      <c r="G343">
+        <v>321.4501771813344</v>
+      </c>
+      <c r="H343">
+        <v>315.269846669769</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>50342</v>
+      </c>
+      <c r="C344">
+        <v>41999.58338747304</v>
+      </c>
+      <c r="D344">
+        <v>0.004464843771322922</v>
+      </c>
+      <c r="E344">
+        <v>0.726027846978418</v>
+      </c>
+      <c r="F344">
+        <v>83.74418482085352</v>
+      </c>
+      <c r="G344">
+        <v>321.1064753081118</v>
+      </c>
+      <c r="H344">
+        <v>318.8507910174064</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>50343</v>
+      </c>
+      <c r="C345">
+        <v>41999.2444977813</v>
+      </c>
+      <c r="D345">
+        <v>0.004394282584432535</v>
+      </c>
+      <c r="E345">
+        <v>0.727081174564056</v>
+      </c>
+      <c r="F345">
+        <v>83.63900092243689</v>
+      </c>
+      <c r="G345">
+        <v>320.7668677543381</v>
+      </c>
+      <c r="H345">
+        <v>322.450206429803</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>50344</v>
+      </c>
+      <c r="C346">
+        <v>41998.8323913417</v>
+      </c>
+      <c r="D346">
+        <v>0.004317353838287738</v>
+      </c>
+      <c r="E346">
+        <v>0.7287685494060663</v>
+      </c>
+      <c r="F346">
+        <v>83.53318070012806</v>
+      </c>
+      <c r="G346">
+        <v>320.3745963996636</v>
+      </c>
+      <c r="H346">
+        <v>326.104321206452</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>50345</v>
+      </c>
+      <c r="C347">
+        <v>41998.36885353165</v>
+      </c>
+      <c r="D347">
+        <v>0.004235059393549756</v>
+      </c>
+      <c r="E347">
+        <v>0.7310552467339203</v>
+      </c>
+      <c r="F347">
+        <v>83.44932466427899</v>
+      </c>
+      <c r="G347">
+        <v>319.8677032153815</v>
+      </c>
+      <c r="H347">
+        <v>329.8524793121395</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>50346</v>
+      </c>
+      <c r="C348">
+        <v>41997.88771985706</v>
+      </c>
+      <c r="D348">
+        <v>0.00414946539308586</v>
+      </c>
+      <c r="E348">
+        <v>0.7337763472876333</v>
+      </c>
+      <c r="F348">
+        <v>83.40701412506645</v>
+      </c>
+      <c r="G348">
+        <v>319.1900988348929</v>
+      </c>
+      <c r="H348">
+        <v>333.7310935489539</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>50347</v>
+      </c>
+      <c r="C349">
+        <v>41997.43610333544</v>
+      </c>
+      <c r="D349">
+        <v>0.004063600873198064</v>
+      </c>
+      <c r="E349">
+        <v>0.7366543723221963</v>
+      </c>
+      <c r="F349">
+        <v>83.41758627733208</v>
+      </c>
+      <c r="G349">
+        <v>318.3017295580648</v>
+      </c>
+      <c r="H349">
+        <v>337.7687315441165</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>50348</v>
+      </c>
+      <c r="C350">
+        <v>41997.07224865847</v>
+      </c>
+      <c r="D350">
+        <v>0.003981274954751937</v>
+      </c>
+      <c r="E350">
+        <v>0.7393491236372224</v>
+      </c>
+      <c r="F350">
+        <v>83.47984741797617</v>
+      </c>
+      <c r="G350">
+        <v>317.1894867037753</v>
+      </c>
+      <c r="H350">
+        <v>341.9795523063415</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>50349</v>
+      </c>
+      <c r="C351">
+        <v>41996.85619761722</v>
+      </c>
+      <c r="D351">
+        <v>0.003906651953606957</v>
+      </c>
+      <c r="E351">
+        <v>0.7415381071035095</v>
+      </c>
+      <c r="F351">
+        <v>83.57826382309939</v>
+      </c>
+      <c r="G351">
+        <v>315.8779699668351</v>
+      </c>
+      <c r="H351">
+        <v>346.3544360323305</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>50350</v>
+      </c>
+      <c r="C352">
+        <v>41996.83076474128</v>
+      </c>
+      <c r="D352">
+        <v>0.003843343437204948</v>
+      </c>
+      <c r="E352">
+        <v>0.743012968808239</v>
+      </c>
+      <c r="F352">
+        <v>83.68523553359887</v>
+      </c>
+      <c r="G352">
+        <v>314.4354753669278</v>
+      </c>
+      <c r="H352">
+        <v>350.8528033082192</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>50351</v>
+      </c>
+      <c r="C353">
+        <v>41996.99689416429</v>
+      </c>
+      <c r="D353">
+        <v>0.003793018843260125</v>
+      </c>
+      <c r="E353">
+        <v>0.7437591528095929</v>
+      </c>
+      <c r="F353">
+        <v>83.76817481229115</v>
+      </c>
+      <c r="G353">
+        <v>312.9657559948356</v>
+      </c>
+      <c r="H353">
+        <v>355.4038041291689</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>50352</v>
+      </c>
+      <c r="C354">
+        <v>41997.29758270572</v>
+      </c>
+      <c r="D354">
+        <v>0.003754188980177996</v>
+      </c>
+      <c r="E354">
+        <v>0.7439763972593634</v>
+      </c>
+      <c r="F354">
+        <v>83.79982350382825</v>
+      </c>
+      <c r="G354">
+        <v>311.5781054573393</v>
+      </c>
+      <c r="H354">
+        <v>359.9258501447918</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>50353</v>
+      </c>
+      <c r="C355">
+        <v>41997.62769743516</v>
+      </c>
+      <c r="D355">
+        <v>0.003722282688521855</v>
+      </c>
+      <c r="E355">
+        <v>0.7440161526124196</v>
+      </c>
+      <c r="F355">
+        <v>83.76759015346676</v>
+      </c>
+      <c r="G355">
+        <v>310.3440832787651</v>
+      </c>
+      <c r="H355">
+        <v>4.360403679603341</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>50354.00000000001</v>
+      </c>
+      <c r="C356">
+        <v>41997.87214161196</v>
+      </c>
+      <c r="D356">
+        <v>0.003691476108448592</v>
+      </c>
+      <c r="E356">
+        <v>0.7442577346342701</v>
+      </c>
+      <c r="F356">
+        <v>83.67721360008024</v>
+      </c>
+      <c r="G356">
+        <v>309.2671191775594</v>
+      </c>
+      <c r="H356">
+        <v>8.698561757143716</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>50355</v>
+      </c>
+      <c r="C357">
+        <v>41997.95052671605</v>
+      </c>
+      <c r="D357">
+        <v>0.00365723095642058</v>
+      </c>
+      <c r="E357">
+        <v>0.7449835437072094</v>
+      </c>
+      <c r="F357">
+        <v>83.54909949629969</v>
+      </c>
+      <c r="G357">
+        <v>308.2865134084506</v>
+      </c>
+      <c r="H357">
+        <v>12.98065809984073</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>50356</v>
+      </c>
+      <c r="C358">
+        <v>41997.83969313792</v>
+      </c>
+      <c r="D358">
+        <v>0.003617869090475549</v>
+      </c>
+      <c r="E358">
+        <v>0.7463097281538833</v>
+      </c>
+      <c r="F358">
+        <v>83.40997536603864</v>
+      </c>
+      <c r="G358">
+        <v>307.3102930185174</v>
+      </c>
+      <c r="H358">
+        <v>17.27179201525766</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>50357</v>
+      </c>
+      <c r="C359">
+        <v>41997.56534757911</v>
+      </c>
+      <c r="D359">
+        <v>0.003574492619998947</v>
+      </c>
+      <c r="E359">
+        <v>0.7481883738044224</v>
+      </c>
+      <c r="F359">
+        <v>83.28444634152079</v>
+      </c>
+      <c r="G359">
+        <v>306.2525022424026</v>
+      </c>
+      <c r="H359">
+        <v>21.63306840285165</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>50358</v>
+      </c>
+      <c r="C360">
+        <v>41997.17724238632</v>
+      </c>
+      <c r="D360">
+        <v>0.003529856954152565</v>
+      </c>
+      <c r="E360">
+        <v>0.7504580840140759</v>
+      </c>
+      <c r="F360">
+        <v>83.18968186393325</v>
+      </c>
+      <c r="G360">
+        <v>305.0560519895206</v>
+      </c>
+      <c r="H360">
+        <v>26.10413433464241</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>50359</v>
+      </c>
+      <c r="C361">
+        <v>41996.72664614682</v>
+      </c>
+      <c r="D361">
+        <v>0.003487153942237015</v>
+      </c>
+      <c r="E361">
+        <v>0.7529073315872674</v>
+      </c>
+      <c r="F361">
+        <v>83.13383208112307</v>
+      </c>
+      <c r="G361">
+        <v>303.6982531038848</v>
+      </c>
+      <c r="H361">
+        <v>30.69926744467595</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>50360</v>
+      </c>
+      <c r="C362">
+        <v>41996.25467839284</v>
+      </c>
+      <c r="D362">
+        <v>0.003449223873371144</v>
+      </c>
+      <c r="E362">
+        <v>0.7553257623276494</v>
+      </c>
+      <c r="F362">
+        <v>83.11699539018926</v>
+      </c>
+      <c r="G362">
+        <v>302.1857893651566</v>
+      </c>
+      <c r="H362">
+        <v>35.41144710575755</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>50361.00000000001</v>
+      </c>
+      <c r="C363">
+        <v>41995.79024679173</v>
+      </c>
+      <c r="D363">
+        <v>0.003418221838309733</v>
+      </c>
+      <c r="E363">
+        <v>0.7575357041280125</v>
+      </c>
+      <c r="F363">
+        <v>83.13320399122051</v>
+      </c>
+      <c r="G363">
+        <v>300.5464862502187</v>
+      </c>
+      <c r="H363">
+        <v>40.21860043306987</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>50362</v>
+      </c>
+      <c r="C364">
+        <v>41995.35296957434</v>
+      </c>
+      <c r="D364">
+        <v>0.003395553837293055</v>
+      </c>
+      <c r="E364">
+        <v>0.7594075562663408</v>
+      </c>
+      <c r="F364">
+        <v>83.17239178426405</v>
+      </c>
+      <c r="G364">
+        <v>298.8219104385047</v>
+      </c>
+      <c r="H364">
+        <v>45.0890337883327</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>50363</v>
+      </c>
+      <c r="C365">
+        <v>41994.95735278888</v>
+      </c>
+      <c r="D365">
+        <v>0.003381905667498756</v>
+      </c>
+      <c r="E365">
+        <v>0.7608663341134992</v>
+      </c>
+      <c r="F365">
+        <v>83.22196031726385</v>
+      </c>
+      <c r="G365">
+        <v>297.061720801374</v>
+      </c>
+      <c r="H365">
+        <v>49.98551775781463</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>50364</v>
+      </c>
+      <c r="C366">
+        <v>41994.61625275887</v>
+      </c>
+      <c r="D366">
+        <v>0.003377268126061578</v>
+      </c>
+      <c r="E366">
+        <v>0.7618952872896195</v>
+      </c>
+      <c r="F366">
+        <v>83.26801771763486</v>
+      </c>
+      <c r="G366">
+        <v>295.3190154074965</v>
+      </c>
+      <c r="H366">
+        <v>54.8687072582763</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>50365</v>
+      </c>
+      <c r="C367">
+        <v>41994.34281310781</v>
+      </c>
+      <c r="D367">
+        <v>0.003380938715641544</v>
+      </c>
+      <c r="E367">
+        <v>0.7625392189533521</v>
+      </c>
+      <c r="F367">
+        <v>83.29658399432461</v>
+      </c>
+      <c r="G367">
+        <v>293.6454591659975</v>
+      </c>
+      <c r="H367">
+        <v>59.70081802858477</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>50365.25000000001</v>
+      </c>
+      <c r="C368">
+        <v>41995.55429835454</v>
+      </c>
+      <c r="D368">
+        <v>0.00332588117614638</v>
+      </c>
+      <c r="E368">
+        <v>0.7627678619948356</v>
+      </c>
+      <c r="F368">
+        <v>83.31009425784235</v>
+      </c>
+      <c r="G368">
+        <v>294.0858365743435</v>
+      </c>
+      <c r="H368">
+        <v>150.0450874723314</v>
       </c>
     </row>
   </sheetData>
